--- a/total_res/ST13_output.xlsx
+++ b/total_res/ST13_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M732"/>
+  <dimension ref="A1:N732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -595,6 +609,9 @@
         <v>0.7099999999999795</v>
       </c>
       <c r="M3" t="n">
+        <v>0.6347338999999795</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -650,6 +667,9 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="M4" t="n">
+        <v>0.2746896999999659</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -705,6 +725,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M5" t="n">
+        <v>-0.07468919999999203</v>
+      </c>
+      <c r="N5" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -760,6 +783,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M6" t="n">
+        <v>0.04532119999998409</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -815,6 +841,9 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="M7" t="n">
+        <v>0.1153199000000057</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -870,6 +899,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M8" t="n">
+        <v>-0.09470740000000227</v>
+      </c>
+      <c r="N8" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -925,6 +957,9 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="M9" t="n">
+        <v>0.2453264000000011</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -980,6 +1015,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.1546891999999761</v>
+      </c>
+      <c r="N10" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1035,6 +1073,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M11" t="n">
+        <v>-0.1646930999999955</v>
+      </c>
+      <c r="N11" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1090,6 +1131,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M12" t="n">
+        <v>-0.01470739999998977</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1145,6 +1189,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M13" t="n">
+        <v>-0.1345228000000227</v>
+      </c>
+      <c r="N13" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1200,6 +1247,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.1145202000000125</v>
+      </c>
+      <c r="N14" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1255,6 +1305,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.1544630000000045</v>
+      </c>
+      <c r="N15" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1310,6 +1363,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M16" t="n">
+        <v>-0.1045084999999932</v>
+      </c>
+      <c r="N16" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1365,6 +1421,9 @@
         <v>8.5</v>
       </c>
       <c r="M17" t="n">
+        <v>6.744415</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1420,6 +1479,9 @@
         <v>-0.5</v>
       </c>
       <c r="M18" t="n">
+        <v>-2.254285</v>
+      </c>
+      <c r="N18" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1475,6 +1537,9 @@
         <v>14.5</v>
       </c>
       <c r="M19" t="n">
+        <v>12.743895</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1530,6 +1595,9 @@
         <v>18</v>
       </c>
       <c r="M20" t="n">
+        <v>16.24435</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1585,6 +1653,9 @@
         <v>-18.5</v>
       </c>
       <c r="M21" t="n">
+        <v>-20.250905</v>
+      </c>
+      <c r="N21" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1640,6 +1711,9 @@
         <v>17</v>
       </c>
       <c r="M22" t="n">
+        <v>15.25462</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1695,6 +1769,9 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
+        <v>-0.7432999999999998</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1750,6 +1827,9 @@
         <v>0.5500000000000682</v>
       </c>
       <c r="M24" t="n">
+        <v>0.4163405000000682</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1805,6 +1885,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M25" t="n">
+        <v>-0.0705708999999909</v>
+      </c>
+      <c r="N25" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1860,6 +1943,9 @@
         <v>-0.01000000000001933</v>
       </c>
       <c r="M26" t="n">
+        <v>-0.07056830000001932</v>
+      </c>
+      <c r="N26" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1915,6 +2001,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M27" t="n">
+        <v>-0.09057090000000113</v>
+      </c>
+      <c r="N27" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1970,6 +2059,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M28" t="n">
+        <v>-0.1405696000000125</v>
+      </c>
+      <c r="N28" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2025,6 +2117,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M29" t="n">
+        <v>-0.0706020999999909</v>
+      </c>
+      <c r="N29" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2080,6 +2175,9 @@
         <v>-0.4599999999999795</v>
       </c>
       <c r="M30" t="n">
+        <v>-0.5206605999999795</v>
+      </c>
+      <c r="N30" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2135,6 +2233,9 @@
         <v>-0.7000000000000171</v>
       </c>
       <c r="M31" t="n">
+        <v>-0.7602498000000171</v>
+      </c>
+      <c r="N31" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2190,6 +2291,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M32" t="n">
+        <v>-0.4721940000000455</v>
+      </c>
+      <c r="N32" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2245,6 +2349,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M33" t="n">
+        <v>-0.4719860000000455</v>
+      </c>
+      <c r="N33" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2300,6 +2407,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M34" t="n">
+        <v>-1.471804000000045</v>
+      </c>
+      <c r="N34" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2355,6 +2465,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M35" t="n">
+        <v>-0.6717000000000908</v>
+      </c>
+      <c r="N35" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2410,6 +2523,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M36" t="n">
+        <v>0.006355999999992045</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2465,6 +2581,9 @@
         <v>0.3199999999999932</v>
       </c>
       <c r="M37" t="n">
+        <v>0.2863559999999932</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2520,6 +2639,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M38" t="n">
+        <v>-0.1535868000000045</v>
+      </c>
+      <c r="N38" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2575,6 +2697,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M39" t="n">
+        <v>-0.2335711999999886</v>
+      </c>
+      <c r="N39" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2630,6 +2755,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M40" t="n">
+        <v>-0.4335243999999773</v>
+      </c>
+      <c r="N40" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2685,6 +2813,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M41" t="n">
+        <v>-0.07350879999999203</v>
+      </c>
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2740,6 +2871,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M42" t="n">
+        <v>0.426556200000008</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2795,6 +2929,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M43" t="n">
+        <v>-0.2431703999999886</v>
+      </c>
+      <c r="N43" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2850,6 +2987,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M44" t="n">
+        <v>-0.1631288000000045</v>
+      </c>
+      <c r="N44" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2905,6 +3045,9 @@
         <v>0.3200000000000216</v>
       </c>
       <c r="M45" t="n">
+        <v>0.2768192000000216</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2960,6 +3103,9 @@
         <v>0.3199999999999932</v>
       </c>
       <c r="M46" t="n">
+        <v>0.2768139999999932</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3007,6 +3153,9 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>-0.0428272</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3062,6 +3211,9 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="M48" t="n">
+        <v>0.06179784999999574</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3117,6 +3269,9 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="M49" t="n">
+        <v>0.06179784999999574</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3172,6 +3327,9 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="M50" t="n">
+        <v>-0.1632314000000057</v>
+      </c>
+      <c r="N50" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3227,6 +3385,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M51" t="n">
+        <v>-0.03321709999999602</v>
+      </c>
+      <c r="N51" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3282,6 +3443,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M52" t="n">
+        <v>-0.02821645000000057</v>
+      </c>
+      <c r="N52" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3337,6 +3501,9 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="M53" t="n">
+        <v>-0.01821775000000256</v>
+      </c>
+      <c r="N53" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3392,6 +3559,9 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="M54" t="n">
+        <v>-0.05321320000000625</v>
+      </c>
+      <c r="N54" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3447,6 +3617,9 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="M55" t="n">
+        <v>0.07177705000000086</v>
+      </c>
+      <c r="N55" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3502,6 +3675,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M56" t="n">
+        <v>0.1267699000000006</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3557,6 +3733,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M57" t="n">
+        <v>0.09676599999999941</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3612,6 +3791,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M58" t="n">
+        <v>-0.04321580000000114</v>
+      </c>
+      <c r="N58" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3667,6 +3849,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M59" t="n">
+        <v>0.2316579999999091</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3722,6 +3907,9 @@
         <v>1</v>
       </c>
       <c r="M60" t="n">
+        <v>0.631918</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3777,6 +3965,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M61" t="n">
+        <v>-1.968887999999909</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3832,6 +4023,9 @@
         <v>2.200000000000045</v>
       </c>
       <c r="M62" t="n">
+        <v>1.831502000000045</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3887,6 +4081,9 @@
         <v>1.599999999999909</v>
       </c>
       <c r="M63" t="n">
+        <v>1.231319999999909</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3942,6 +4139,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M64" t="n">
+        <v>-0.5689140000000454</v>
+      </c>
+      <c r="N64" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3997,6 +4197,9 @@
         <v>0.1700000000000017</v>
       </c>
       <c r="M65" t="n">
+        <v>0.1541439000000017</v>
+      </c>
+      <c r="N65" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4052,6 +4255,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M66" t="n">
+        <v>-0.04592630000000114</v>
+      </c>
+      <c r="N66" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4107,6 +4313,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M67" t="n">
+        <v>0.04406720000000227</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4162,6 +4371,9 @@
         <v>0.3000000000000043</v>
       </c>
       <c r="M68" t="n">
+        <v>0.2840906000000044</v>
+      </c>
+      <c r="N68" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -4217,6 +4429,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M69" t="n">
+        <v>-0.1352386000000045</v>
+      </c>
+      <c r="N69" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4272,6 +4487,9 @@
         <v>0.2900000000000063</v>
       </c>
       <c r="M70" t="n">
+        <v>0.2748043000000063</v>
+      </c>
+      <c r="N70" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -4327,6 +4545,9 @@
         <v>-0.2999999999999972</v>
       </c>
       <c r="M71" t="n">
+        <v>-0.3151189999999972</v>
+      </c>
+      <c r="N71" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -4382,6 +4603,9 @@
         <v>-0.5</v>
       </c>
       <c r="M72" t="n">
+        <v>-0.5378326</v>
+      </c>
+      <c r="N72" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -4437,6 +4661,9 @@
         <v>0.5200000000000102</v>
       </c>
       <c r="M73" t="n">
+        <v>0.4821752000000102</v>
+      </c>
+      <c r="N73" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4492,6 +4719,9 @@
         <v>1.04000000000002</v>
       </c>
       <c r="M74" t="n">
+        <v>1.00224280000002</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4547,6 +4777,9 @@
         <v>-0.8799999999999955</v>
       </c>
       <c r="M75" t="n">
+        <v>-0.9175075999999954</v>
+      </c>
+      <c r="N75" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -4602,6 +4835,9 @@
         <v>0.01599999999999824</v>
       </c>
       <c r="M76" t="n">
+        <v>0.01044717999999824</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4657,6 +4893,9 @@
         <v>-0.04900000000000304</v>
       </c>
       <c r="M77" t="n">
+        <v>-0.05452955000000304</v>
+      </c>
+      <c r="N77" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4712,6 +4951,9 @@
         <v>0.06199999999999761</v>
       </c>
       <c r="M78" t="n">
+        <v>0.05648929999999761</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4767,6 +5009,9 @@
         <v>0.9499999999999318</v>
       </c>
       <c r="M79" t="n">
+        <v>0.7724394999999318</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4822,6 +5067,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M80" t="n">
+        <v>-0.5277685000000226</v>
+      </c>
+      <c r="N80" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4877,6 +5125,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M81" t="n">
+        <v>-0.5277945000000227</v>
+      </c>
+      <c r="N81" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4932,6 +5183,9 @@
         <v>-0.4500000000000455</v>
       </c>
       <c r="M82" t="n">
+        <v>-0.6278075000000455</v>
+      </c>
+      <c r="N82" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4987,6 +5241,9 @@
         <v>1.799999999999955</v>
       </c>
       <c r="M83" t="n">
+        <v>1.622393999999955</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5042,6 +5299,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M84" t="n">
+        <v>-0.2764620000000226</v>
+      </c>
+      <c r="N84" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5097,6 +5357,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M85" t="n">
+        <v>-0.2764620000000226</v>
+      </c>
+      <c r="N85" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5152,6 +5415,9 @@
         <v>-0.5</v>
       </c>
       <c r="M86" t="n">
+        <v>-0.6765139999999999</v>
+      </c>
+      <c r="N86" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5207,6 +5473,9 @@
         <v>-0.0005200000000000066</v>
       </c>
       <c r="M87" t="n">
+        <v>-0.0005458336000000065</v>
+      </c>
+      <c r="N87" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -5262,6 +5531,9 @@
         <v>-0.0005799999999999972</v>
       </c>
       <c r="M88" t="n">
+        <v>-0.0006059713999999972</v>
+      </c>
+      <c r="N88" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -5317,6 +5589,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M89" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N89" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5372,6 +5647,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M90" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N90" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5427,6 +5705,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M91" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N91" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5482,6 +5763,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M92" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5537,6 +5821,9 @@
         <v>0.000500000000000056</v>
       </c>
       <c r="M93" t="n">
+        <v>0.000342401000000056</v>
+      </c>
+      <c r="N93" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5592,6 +5879,9 @@
         <v>-0.001499999999999946</v>
       </c>
       <c r="M94" t="n">
+        <v>-0.001657858999999946</v>
+      </c>
+      <c r="N94" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -5647,6 +5937,9 @@
         <v>0.00109999999999999</v>
       </c>
       <c r="M95" t="n">
+        <v>0.00094224499999999</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -5702,6 +5995,9 @@
         <v>-0.001300000000000079</v>
       </c>
       <c r="M96" t="n">
+        <v>-0.001457443000000079</v>
+      </c>
+      <c r="N96" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -5757,6 +6053,9 @@
         <v>0.001199999999999979</v>
       </c>
       <c r="M97" t="n">
+        <v>0.001042855999999979</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -5812,6 +6111,9 @@
         <v>0.0006000000000000449</v>
       </c>
       <c r="M98" t="n">
+        <v>0.0004429340000000449</v>
+      </c>
+      <c r="N98" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5867,6 +6169,9 @@
         <v>0.0007000000000000339</v>
       </c>
       <c r="M99" t="n">
+        <v>0.0005429470000000338</v>
+      </c>
+      <c r="N99" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5922,6 +6227,9 @@
         <v>0.000400000000000067</v>
       </c>
       <c r="M100" t="n">
+        <v>0.0002429860000000671</v>
+      </c>
+      <c r="N100" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5977,6 +6285,9 @@
         <v>-0.00329999999999997</v>
       </c>
       <c r="M101" t="n">
+        <v>-0.00345749499999997</v>
+      </c>
+      <c r="N101" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -6032,6 +6343,9 @@
         <v>-0.00109999999999999</v>
       </c>
       <c r="M102" t="n">
+        <v>-0.00125702699999999</v>
+      </c>
+      <c r="N102" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -6087,6 +6401,9 @@
         <v>-0.001400000000000068</v>
       </c>
       <c r="M103" t="n">
+        <v>-0.001556416000000068</v>
+      </c>
+      <c r="N103" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -6142,6 +6459,9 @@
         <v>-5.900000000000091</v>
       </c>
       <c r="M104" t="n">
+        <v>-6.689997000000091</v>
+      </c>
+      <c r="N104" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -6197,6 +6517,9 @@
         <v>3.949999999999818</v>
       </c>
       <c r="M105" t="n">
+        <v>3.162856499999819</v>
+      </c>
+      <c r="N105" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -6252,6 +6575,9 @@
         <v>0.0500000000001819</v>
       </c>
       <c r="M106" t="n">
+        <v>-0.7366364999998181</v>
+      </c>
+      <c r="N106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6307,6 +6633,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M107" t="n">
+        <v>-2.388202999999909</v>
+      </c>
+      <c r="N107" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -6362,6 +6691,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M108" t="n">
+        <v>-2.386330999999909</v>
+      </c>
+      <c r="N108" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -6417,6 +6749,9 @@
         <v>-1.349999999999909</v>
       </c>
       <c r="M109" t="n">
+        <v>-2.134998499999909</v>
+      </c>
+      <c r="N109" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -6472,6 +6807,9 @@
         <v>-1.899999999999636</v>
       </c>
       <c r="M110" t="n">
+        <v>-2.685199999999636</v>
+      </c>
+      <c r="N110" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -6527,6 +6865,9 @@
         <v>6.300000000000182</v>
       </c>
       <c r="M111" t="n">
+        <v>5.514514000000181</v>
+      </c>
+      <c r="N111" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -6582,6 +6923,9 @@
         <v>5.550000000000182</v>
       </c>
       <c r="M112" t="n">
+        <v>4.763506500000182</v>
+      </c>
+      <c r="N112" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -6637,6 +6981,9 @@
         <v>6.449999999999818</v>
       </c>
       <c r="M113" t="n">
+        <v>5.663623499999818</v>
+      </c>
+      <c r="N113" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -6692,6 +7039,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M114" t="n">
+        <v>-2.631735499999909</v>
+      </c>
+      <c r="N114" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -6747,6 +7097,9 @@
         <v>-2.349999999999909</v>
       </c>
       <c r="M115" t="n">
+        <v>-3.130370499999909</v>
+      </c>
+      <c r="N115" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -6802,6 +7155,9 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="M116" t="n">
+        <v>-0.630851499999909</v>
+      </c>
+      <c r="N116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6857,6 +7213,9 @@
         <v>-4.199999999999818</v>
       </c>
       <c r="M117" t="n">
+        <v>-4.979518999999819</v>
+      </c>
+      <c r="N117" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -6912,6 +7271,9 @@
         <v>0.04999999999972715</v>
       </c>
       <c r="M118" t="n">
+        <v>-0.7290445000002728</v>
+      </c>
+      <c r="N118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6967,6 +7329,9 @@
         <v>-0.1049999999999969</v>
       </c>
       <c r="M119" t="n">
+        <v>-0.1140278499999969</v>
+      </c>
+      <c r="N119" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -7022,6 +7387,9 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="M120" t="n">
+        <v>0.09095720000000139</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -7077,6 +7445,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M121" t="n">
+        <v>-0.06904150000000227</v>
+      </c>
+      <c r="N121" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -7132,6 +7503,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M122" t="n">
+        <v>-0.05902849999999716</v>
+      </c>
+      <c r="N122" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -7187,6 +7561,9 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="M123" t="n">
+        <v>-0.03403305000000569</v>
+      </c>
+      <c r="N123" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -7234,6 +7611,9 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
+        <v>-0.0089388</v>
+      </c>
+      <c r="N124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7279,10 +7659,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7336,6 +7725,9 @@
         <v>-0.8299999999999841</v>
       </c>
       <c r="M126" t="n">
+        <v>-0.904434099999984</v>
+      </c>
+      <c r="N126" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -7391,6 +7783,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M127" t="n">
+        <v>-0.1141858000000205</v>
+      </c>
+      <c r="N127" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -7446,6 +7841,9 @@
         <v>-0.1700000000000159</v>
       </c>
       <c r="M128" t="n">
+        <v>-0.2441247000000159</v>
+      </c>
+      <c r="N128" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -7501,6 +7899,9 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="M129" t="n">
+        <v>-0.004194900000006815</v>
+      </c>
+      <c r="N129" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -7556,6 +7957,9 @@
         <v>0.08000000000004093</v>
       </c>
       <c r="M130" t="n">
+        <v>0.005770000000040937</v>
+      </c>
+      <c r="N130" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -7611,6 +8015,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M131" t="n">
+        <v>-0.1142248000000204</v>
+      </c>
+      <c r="N131" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -7666,6 +8073,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M132" t="n">
+        <v>-0.1543798000000045</v>
+      </c>
+      <c r="N132" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -7721,6 +8131,9 @@
         <v>-0.01999999999998181</v>
       </c>
       <c r="M133" t="n">
+        <v>-0.05437719999998181</v>
+      </c>
+      <c r="N133" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -7776,6 +8189,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M134" t="n">
+        <v>-0.2543771999999989</v>
+      </c>
+      <c r="N134" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -7831,6 +8247,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M135" t="n">
+        <v>0.5457008000000125</v>
+      </c>
+      <c r="N135" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -7886,6 +8305,9 @@
         <v>-0.75</v>
       </c>
       <c r="M136" t="n">
+        <v>-0.7841262999999999</v>
+      </c>
+      <c r="N136" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -7941,6 +8363,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M137" t="n">
+        <v>-0.4340392000000057</v>
+      </c>
+      <c r="N137" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -7996,6 +8421,9 @@
         <v>-0.9699999999999989</v>
       </c>
       <c r="M138" t="n">
+        <v>-1.004284899999999</v>
+      </c>
+      <c r="N138" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -8051,6 +8479,9 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="M139" t="n">
+        <v>0.01595949999998295</v>
+      </c>
+      <c r="N139" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -8106,6 +8537,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M140" t="n">
+        <v>-0.1741146000000148</v>
+      </c>
+      <c r="N140" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -8153,6 +8587,9 @@
         <v>0</v>
       </c>
       <c r="M141" t="n">
+        <v>-0.034125</v>
+      </c>
+      <c r="N141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8208,6 +8645,9 @@
         <v>8.5</v>
       </c>
       <c r="M142" t="n">
+        <v>6.763265</v>
+      </c>
+      <c r="N142" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -8263,6 +8703,9 @@
         <v>14</v>
       </c>
       <c r="M143" t="n">
+        <v>12.26463</v>
+      </c>
+      <c r="N143" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -8318,6 +8761,9 @@
         <v>41.5</v>
       </c>
       <c r="M144" t="n">
+        <v>39.778215</v>
+      </c>
+      <c r="N144" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -8373,6 +8819,9 @@
         <v>-18</v>
       </c>
       <c r="M145" t="n">
+        <v>-19.71405</v>
+      </c>
+      <c r="N145" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -8428,6 +8877,9 @@
         <v>7</v>
       </c>
       <c r="M146" t="n">
+        <v>5.28465</v>
+      </c>
+      <c r="N146" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -8483,6 +8935,9 @@
         <v>-0.5</v>
       </c>
       <c r="M147" t="n">
+        <v>-2.216325</v>
+      </c>
+      <c r="N147" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -8538,6 +8993,9 @@
         <v>1.5</v>
       </c>
       <c r="M148" t="n">
+        <v>-0.2161949999999998</v>
+      </c>
+      <c r="N148" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -8593,6 +9051,9 @@
         <v>1</v>
       </c>
       <c r="M149" t="n">
+        <v>-0.7162599999999999</v>
+      </c>
+      <c r="N149" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -8648,6 +9109,9 @@
         <v>1</v>
       </c>
       <c r="M150" t="n">
+        <v>-0.7162599999999999</v>
+      </c>
+      <c r="N150" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -8695,6 +9159,9 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
+        <v>-1.71639</v>
+      </c>
+      <c r="N151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8750,6 +9217,9 @@
         <v>1.25</v>
       </c>
       <c r="M152" t="n">
+        <v>1.1183685</v>
+      </c>
+      <c r="N152" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -8805,6 +9275,9 @@
         <v>0.8500000000000227</v>
       </c>
       <c r="M153" t="n">
+        <v>0.7184205000000227</v>
+      </c>
+      <c r="N153" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -8860,6 +9333,9 @@
         <v>-2.25</v>
       </c>
       <c r="M154" t="n">
+        <v>-2.3819825</v>
+      </c>
+      <c r="N154" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -8915,6 +9391,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M155" t="n">
+        <v>-0.1820345000000114</v>
+      </c>
+      <c r="N155" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -8970,6 +9449,9 @@
         <v>-0.9000000000000341</v>
       </c>
       <c r="M156" t="n">
+        <v>-1.031794000000034</v>
+      </c>
+      <c r="N156" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -9025,6 +9507,9 @@
         <v>-0.6500000000000341</v>
       </c>
       <c r="M157" t="n">
+        <v>-0.7818785000000341</v>
+      </c>
+      <c r="N157" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -9080,6 +9565,9 @@
         <v>1.550000000000011</v>
       </c>
       <c r="M158" t="n">
+        <v>1.418485500000011</v>
+      </c>
+      <c r="N158" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -9135,6 +9623,9 @@
         <v>0</v>
       </c>
       <c r="M159" t="n">
+        <v>-0.131196</v>
+      </c>
+      <c r="N159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9190,6 +9681,9 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="M160" t="n">
+        <v>0.2187584999999659</v>
+      </c>
+      <c r="N160" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -9245,6 +9739,9 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
+        <v>-0.131287</v>
+      </c>
+      <c r="N161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9300,6 +9797,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M162" t="n">
+        <v>-0.3311959999999886</v>
+      </c>
+      <c r="N162" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -9355,6 +9855,9 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
+        <v>-0.13117</v>
+      </c>
+      <c r="N163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9410,6 +9913,9 @@
         <v>0.5</v>
       </c>
       <c r="M164" t="n">
+        <v>0.3687780000000001</v>
+      </c>
+      <c r="N164" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -9465,6 +9971,9 @@
         <v>-0.1699999999999875</v>
       </c>
       <c r="M165" t="n">
+        <v>-0.2296166999999875</v>
+      </c>
+      <c r="N165" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -9520,6 +10029,9 @@
         <v>1.109999999999985</v>
       </c>
       <c r="M166" t="n">
+        <v>1.050341699999985</v>
+      </c>
+      <c r="N166" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -9575,6 +10087,9 @@
         <v>-0.9399999999999977</v>
       </c>
       <c r="M167" t="n">
+        <v>-0.9996075999999977</v>
+      </c>
+      <c r="N167" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -9630,6 +10145,9 @@
         <v>-0.0700000000000216</v>
       </c>
       <c r="M168" t="n">
+        <v>-0.1299105000000216</v>
+      </c>
+      <c r="N168" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -9685,6 +10203,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M169" t="n">
+        <v>-0.09990139999999204</v>
+      </c>
+      <c r="N169" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -9740,6 +10261,9 @@
         <v>-3.800000000000182</v>
       </c>
       <c r="M170" t="n">
+        <v>-4.068450000000182</v>
+      </c>
+      <c r="N170" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -9795,6 +10319,9 @@
         <v>-0.1999999999998181</v>
       </c>
       <c r="M171" t="n">
+        <v>-0.4671499999998181</v>
+      </c>
+      <c r="N171" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -9850,6 +10377,9 @@
         <v>-1</v>
       </c>
       <c r="M172" t="n">
+        <v>-1.266942</v>
+      </c>
+      <c r="N172" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -9905,6 +10435,9 @@
         <v>-1.600000000000136</v>
       </c>
       <c r="M173" t="n">
+        <v>-1.866916000000136</v>
+      </c>
+      <c r="N173" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -9960,6 +10493,9 @@
         <v>-1.199999999999818</v>
       </c>
       <c r="M174" t="n">
+        <v>-1.466759999999818</v>
+      </c>
+      <c r="N174" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -10015,6 +10551,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M175" t="n">
+        <v>-1.667098000000091</v>
+      </c>
+      <c r="N175" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -10070,6 +10609,9 @@
         <v>5.200000000000045</v>
       </c>
       <c r="M176" t="n">
+        <v>4.933864000000045</v>
+      </c>
+      <c r="N176" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -10125,6 +10667,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M177" t="n">
+        <v>-0.6655639999999773</v>
+      </c>
+      <c r="N177" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -10180,6 +10725,9 @@
         <v>1</v>
       </c>
       <c r="M178" t="n">
+        <v>0.73441</v>
+      </c>
+      <c r="N178" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -10235,6 +10783,9 @@
         <v>1</v>
       </c>
       <c r="M179" t="n">
+        <v>0.73441</v>
+      </c>
+      <c r="N179" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -10290,6 +10841,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M180" t="n">
+        <v>0.3349299999999091</v>
+      </c>
+      <c r="N180" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -10345,6 +10899,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M181" t="n">
+        <v>-0.6647839999999772</v>
+      </c>
+      <c r="N181" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -10400,6 +10957,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M182" t="n">
+        <v>-0.4648100000000455</v>
+      </c>
+      <c r="N182" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -10455,6 +11015,9 @@
         <v>-2.600000000000023</v>
       </c>
       <c r="M183" t="n">
+        <v>-2.865122000000023</v>
+      </c>
+      <c r="N183" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -10502,6 +11065,9 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
+        <v>-0.265408</v>
+      </c>
+      <c r="N184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10557,6 +11123,9 @@
         <v>0.003999999999999559</v>
       </c>
       <c r="M185" t="n">
+        <v>0.0009171799999995588</v>
+      </c>
+      <c r="N185" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -10612,6 +11181,9 @@
         <v>0.003000000000000114</v>
       </c>
       <c r="M186" t="n">
+        <v>-8.268999999988579e-05</v>
+      </c>
+      <c r="N186" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -10667,6 +11239,9 @@
         <v>-0.007999999999999119</v>
       </c>
       <c r="M187" t="n">
+        <v>-0.01108411999999912</v>
+      </c>
+      <c r="N187" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -10722,6 +11297,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M188" t="n">
+        <v>0.1265691999999966</v>
+      </c>
+      <c r="N188" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -10777,6 +11355,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M189" t="n">
+        <v>-0.1334178000000227</v>
+      </c>
+      <c r="N189" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -10832,6 +11413,9 @@
         <v>0.3199999999999932</v>
       </c>
       <c r="M190" t="n">
+        <v>0.2866211999999932</v>
+      </c>
+      <c r="N190" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -10887,6 +11471,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M191" t="n">
+        <v>-0.2133138000000068</v>
+      </c>
+      <c r="N191" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -10942,6 +11529,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M192" t="n">
+        <v>-0.1732826000000148</v>
+      </c>
+      <c r="N192" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -10997,6 +11587,9 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="M193" t="n">
+        <v>0.006751200000006254</v>
+      </c>
+      <c r="N193" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -11052,6 +11645,9 @@
         <v>-0.2600000000000193</v>
       </c>
       <c r="M194" t="n">
+        <v>-0.2933814000000193</v>
+      </c>
+      <c r="N194" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -11107,6 +11703,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M195" t="n">
+        <v>-0.1131447999999983</v>
+      </c>
+      <c r="N195" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -11162,6 +11761,9 @@
         <v>0.1199999999999903</v>
       </c>
       <c r="M196" t="n">
+        <v>0.0868395999999903</v>
+      </c>
+      <c r="N196" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -11217,6 +11819,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M197" t="n">
+        <v>0.1268135999999966</v>
+      </c>
+      <c r="N197" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -11272,6 +11877,9 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="M198" t="n">
+        <v>-0.07321240000000626</v>
+      </c>
+      <c r="N198" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -11327,6 +11935,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M199" t="n">
+        <v>-0.05319420000001022</v>
+      </c>
+      <c r="N199" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -11374,6 +11985,9 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
+        <v>-0.0331968</v>
+      </c>
+      <c r="N200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11429,6 +12043,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M201" t="n">
+        <v>0.5372274000000125</v>
+      </c>
+      <c r="N201" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -11484,6 +12101,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M202" t="n">
+        <v>0.3572508000000057</v>
+      </c>
+      <c r="N202" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -11539,6 +12159,9 @@
         <v>-1.099999999999994</v>
       </c>
       <c r="M203" t="n">
+        <v>-1.142944199999994</v>
+      </c>
+      <c r="N203" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -11594,6 +12217,9 @@
         <v>-0.539999999999992</v>
       </c>
       <c r="M204" t="n">
+        <v>-0.582699799999992</v>
+      </c>
+      <c r="N204" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -11649,6 +12275,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M205" t="n">
+        <v>0.417258600000008</v>
+      </c>
+      <c r="N205" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -11704,6 +12333,9 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="M206" t="n">
+        <v>0.5172612000000022</v>
+      </c>
+      <c r="N206" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -11759,6 +12391,9 @@
         <v>0.6800000000000068</v>
       </c>
       <c r="M207" t="n">
+        <v>0.6372456000000067</v>
+      </c>
+      <c r="N207" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -11814,6 +12449,9 @@
         <v>-0.5</v>
       </c>
       <c r="M208" t="n">
+        <v>-0.5429078000000001</v>
+      </c>
+      <c r="N208" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -11869,6 +12507,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M209" t="n">
+        <v>-0.1029130000000023</v>
+      </c>
+      <c r="N209" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -11924,6 +12565,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M210" t="n">
+        <v>0.1570739999999886</v>
+      </c>
+      <c r="N210" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -11979,6 +12623,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M211" t="n">
+        <v>-0.2429780000000171</v>
+      </c>
+      <c r="N211" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -12034,6 +12681,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M212" t="n">
+        <v>-0.06297020000001022</v>
+      </c>
+      <c r="N212" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -12089,6 +12739,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M213" t="n">
+        <v>-0.06297020000001023</v>
+      </c>
+      <c r="N213" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -12144,6 +12797,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M214" t="n">
+        <v>-0.4030247999999852</v>
+      </c>
+      <c r="N214" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -12199,6 +12855,9 @@
         <v>0.1300000000000026</v>
       </c>
       <c r="M215" t="n">
+        <v>0.1168674000000026</v>
+      </c>
+      <c r="N215" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -12254,6 +12913,9 @@
         <v>0.1849999999999952</v>
       </c>
       <c r="M216" t="n">
+        <v>0.1718875499999952</v>
+      </c>
+      <c r="N216" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -12309,6 +12971,9 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="M217" t="n">
+        <v>-0.03808515000000568</v>
+      </c>
+      <c r="N217" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -12364,6 +13029,9 @@
         <v>0.2700000000000031</v>
       </c>
       <c r="M218" t="n">
+        <v>0.2569077000000031</v>
+      </c>
+      <c r="N218" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -12419,6 +13087,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M219" t="n">
+        <v>0.0969284999999994</v>
+      </c>
+      <c r="N219" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -12474,6 +13145,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M220" t="n">
+        <v>-0.02808775000000057</v>
+      </c>
+      <c r="N220" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -12529,6 +13203,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M221" t="n">
+        <v>0.001904450000000571</v>
+      </c>
+      <c r="N221" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -12584,6 +13261,9 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="M222" t="n">
+        <v>-0.06810594999999972</v>
+      </c>
+      <c r="N222" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -12631,6 +13311,9 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
+        <v>-0.0130988</v>
+      </c>
+      <c r="N223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12686,6 +13369,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M224" t="n">
+        <v>-0.966261999999909</v>
+      </c>
+      <c r="N224" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -12741,6 +13427,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M225" t="n">
+        <v>-0.5663140000000454</v>
+      </c>
+      <c r="N225" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -12796,6 +13485,9 @@
         <v>3.599999999999909</v>
       </c>
       <c r="M226" t="n">
+        <v>3.234179999999909</v>
+      </c>
+      <c r="N226" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -12851,6 +13543,9 @@
         <v>0</v>
       </c>
       <c r="M227" t="n">
+        <v>-0.365352</v>
+      </c>
+      <c r="N227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12906,6 +13601,9 @@
         <v>14.20000000000005</v>
       </c>
       <c r="M228" t="n">
+        <v>13.83592200000005</v>
+      </c>
+      <c r="N228" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -12961,6 +13659,9 @@
         <v>4.399999999999864</v>
       </c>
       <c r="M229" t="n">
+        <v>4.037195999999863</v>
+      </c>
+      <c r="N229" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -13016,6 +13717,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M230" t="n">
+        <v>-0.1637659999999545</v>
+      </c>
+      <c r="N230" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -13071,6 +13775,9 @@
         <v>-1.200000000000045</v>
       </c>
       <c r="M231" t="n">
+        <v>-1.563948000000045</v>
+      </c>
+      <c r="N231" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -13126,6 +13833,9 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="M232" t="n">
+        <v>0.1042257999999974</v>
+      </c>
+      <c r="N232" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -13181,6 +13891,9 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="M233" t="n">
+        <v>0.08422840000000138</v>
+      </c>
+      <c r="N233" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -13236,6 +13949,9 @@
         <v>-0.1499999999999986</v>
       </c>
       <c r="M234" t="n">
+        <v>-0.1658040999999986</v>
+      </c>
+      <c r="N234" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -13291,6 +14007,9 @@
         <v>0.4500000000000028</v>
       </c>
       <c r="M235" t="n">
+        <v>0.4342765000000028</v>
+      </c>
+      <c r="N235" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -13346,6 +14065,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M236" t="n">
+        <v>0.06436099999999829</v>
+      </c>
+      <c r="N236" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -13401,6 +14123,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M237" t="n">
+        <v>-0.02564809999999801</v>
+      </c>
+      <c r="N237" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -13456,6 +14181,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M238" t="n">
+        <v>0.02434279999999915</v>
+      </c>
+      <c r="N238" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -13511,6 +14239,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M239" t="n">
+        <v>-0.1256766999999994</v>
+      </c>
+      <c r="N239" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -13566,6 +14297,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M240" t="n">
+        <v>-0.05567279999999915</v>
+      </c>
+      <c r="N240" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -13621,6 +14355,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M241" t="n">
+        <v>0.08466429999999942</v>
+      </c>
+      <c r="N241" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -13676,6 +14413,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M242" t="n">
+        <v>-0.1453656000000045</v>
+      </c>
+      <c r="N242" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -13723,6 +14463,9 @@
         <v>0</v>
       </c>
       <c r="M243" t="n">
+        <v>-0.0253708</v>
+      </c>
+      <c r="N243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13778,6 +14521,9 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="M244" t="n">
+        <v>0.3751111000000006</v>
+      </c>
+      <c r="N244" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -13833,6 +14579,9 @@
         <v>-0.6499999999999986</v>
       </c>
       <c r="M245" t="n">
+        <v>-0.6647536999999986</v>
+      </c>
+      <c r="N245" t="n">
         <v>-1.14</v>
       </c>
     </row>
@@ -13888,6 +14637,9 @@
         <v>-0.279999999999994</v>
       </c>
       <c r="M246" t="n">
+        <v>-0.294825199999994</v>
+      </c>
+      <c r="N246" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -13943,6 +14695,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M247" t="n">
+        <v>-0.2347653999999989</v>
+      </c>
+      <c r="N247" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -13998,6 +14753,9 @@
         <v>0.08999999999999631</v>
       </c>
       <c r="M248" t="n">
+        <v>0.07519949999999631</v>
+      </c>
+      <c r="N248" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -14053,6 +14811,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M249" t="n">
+        <v>0.05520990000000029</v>
+      </c>
+      <c r="N249" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -14108,6 +14869,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M250" t="n">
+        <v>-0.2574061999999989</v>
+      </c>
+      <c r="N250" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -14163,6 +14927,9 @@
         <v>1.060000000000002</v>
       </c>
       <c r="M251" t="n">
+        <v>1.022708200000002</v>
+      </c>
+      <c r="N251" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -14218,6 +14985,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M252" t="n">
+        <v>-0.05715140000001023</v>
+      </c>
+      <c r="N252" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -14273,6 +15043,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M253" t="n">
+        <v>0.5428174000000126</v>
+      </c>
+      <c r="N253" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -14328,6 +15101,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M254" t="n">
+        <v>0.422801800000008</v>
+      </c>
+      <c r="N254" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -14383,6 +15159,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M255" t="n">
+        <v>0.3627888000000057</v>
+      </c>
+      <c r="N255" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -14438,6 +15217,9 @@
         <v>-1.599999999999994</v>
       </c>
       <c r="M256" t="n">
+        <v>-1.637471199999994</v>
+      </c>
+      <c r="N256" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -14493,6 +15275,9 @@
         <v>-0.5800000000000125</v>
       </c>
       <c r="M257" t="n">
+        <v>-0.6177858000000125</v>
+      </c>
+      <c r="N257" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -14548,6 +15333,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M258" t="n">
+        <v>-0.05783260000001023</v>
+      </c>
+      <c r="N258" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -14603,6 +15391,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M259" t="n">
+        <v>-0.2977909999999909</v>
+      </c>
+      <c r="N259" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -14658,6 +15449,9 @@
         <v>-0.01699999999999946</v>
       </c>
       <c r="M260" t="n">
+        <v>-0.02242138999999946</v>
+      </c>
+      <c r="N260" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -14713,6 +15507,9 @@
         <v>-0.03699999999999903</v>
       </c>
       <c r="M261" t="n">
+        <v>-0.04242658999999903</v>
+      </c>
+      <c r="N261" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -14768,6 +15565,9 @@
         <v>-0.02699999999999747</v>
       </c>
       <c r="M262" t="n">
+        <v>-0.03242528999999747</v>
+      </c>
+      <c r="N262" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -14823,6 +15623,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M263" t="n">
+        <v>-0.02049107000000057</v>
+      </c>
+      <c r="N263" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -14878,6 +15681,9 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="M264" t="n">
+        <v>-0.01038810999999901</v>
+      </c>
+      <c r="N264" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -14933,6 +15739,9 @@
         <v>-0.1490000000000009</v>
       </c>
       <c r="M265" t="n">
+        <v>-0.1544115100000009</v>
+      </c>
+      <c r="N265" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -14988,6 +15797,9 @@
         <v>-0.002000000000002444</v>
       </c>
       <c r="M266" t="n">
+        <v>-0.007376800000002444</v>
+      </c>
+      <c r="N266" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -15043,6 +15855,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M267" t="n">
+        <v>-0.02038317000000057</v>
+      </c>
+      <c r="N267" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -15098,6 +15913,9 @@
         <v>-0.03800000000000026</v>
       </c>
       <c r="M268" t="n">
+        <v>-0.04342594000000026</v>
+      </c>
+      <c r="N268" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -15153,6 +15971,9 @@
         <v>0.03100000000000236</v>
       </c>
       <c r="M269" t="n">
+        <v>0.02557627000000236</v>
+      </c>
+      <c r="N269" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -15208,6 +16029,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M270" t="n">
+        <v>1.424994000000023</v>
+      </c>
+      <c r="N270" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -15263,6 +16087,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M271" t="n">
+        <v>-0.5753050000000909</v>
+      </c>
+      <c r="N271" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -15318,6 +16145,9 @@
         <v>-0.0008400000000000074</v>
       </c>
       <c r="M272" t="n">
+        <v>-0.0008659428000000074</v>
+      </c>
+      <c r="N272" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -15373,6 +16203,9 @@
         <v>-0.0001199999999999951</v>
       </c>
       <c r="M273" t="n">
+        <v>-0.0001458751999999951</v>
+      </c>
+      <c r="N273" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -15428,6 +16261,9 @@
         <v>0.0002400000000000041</v>
       </c>
       <c r="M274" t="n">
+        <v>0.0002142548000000041</v>
+      </c>
+      <c r="N274" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -15483,6 +16319,9 @@
         <v>0.001700000000000035</v>
       </c>
       <c r="M275" t="n">
+        <v>0.001544351000000035</v>
+      </c>
+      <c r="N275" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -15538,6 +16377,9 @@
         <v>-0.001700000000000035</v>
       </c>
       <c r="M276" t="n">
+        <v>-0.001856091000000035</v>
+      </c>
+      <c r="N276" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -15593,6 +16435,9 @@
         <v>9.999999999998899e-05</v>
       </c>
       <c r="M277" t="n">
+        <v>-5.663700000001101e-05</v>
+      </c>
+      <c r="N277" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -15648,6 +16493,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M278" t="n">
+        <v>-0.0002567409999999889</v>
+      </c>
+      <c r="N278" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -15703,6 +16551,9 @@
         <v>12.44999999999982</v>
       </c>
       <c r="M279" t="n">
+        <v>11.67317849999982</v>
+      </c>
+      <c r="N279" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -15758,6 +16609,9 @@
         <v>1.799999999999727</v>
       </c>
       <c r="M280" t="n">
+        <v>1.027136999999727</v>
+      </c>
+      <c r="N280" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -15813,6 +16667,9 @@
         <v>3.949999999999818</v>
       </c>
       <c r="M281" t="n">
+        <v>3.179236499999818</v>
+      </c>
+      <c r="N281" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -15868,6 +16725,9 @@
         <v>-0.4499999999998181</v>
       </c>
       <c r="M282" t="n">
+        <v>-1.220191499999818</v>
+      </c>
+      <c r="N282" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -15923,6 +16783,9 @@
         <v>-1.5</v>
       </c>
       <c r="M283" t="n">
+        <v>-2.268365</v>
+      </c>
+      <c r="N283" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -15978,6 +16841,9 @@
         <v>-0.75</v>
       </c>
       <c r="M284" t="n">
+        <v>-1.5198795</v>
+      </c>
+      <c r="N284" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -16033,6 +16899,9 @@
         <v>1.700000000000273</v>
       </c>
       <c r="M285" t="n">
+        <v>0.929763000000273</v>
+      </c>
+      <c r="N285" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -16088,6 +16957,9 @@
         <v>-2.25</v>
       </c>
       <c r="M286" t="n">
+        <v>-3.0197235</v>
+      </c>
+      <c r="N286" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -16143,6 +17015,9 @@
         <v>-2.25</v>
       </c>
       <c r="M287" t="n">
+        <v>-3.0208805</v>
+      </c>
+      <c r="N287" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -16198,6 +17073,9 @@
         <v>0.1999999999998181</v>
       </c>
       <c r="M288" t="n">
+        <v>-0.5700550000001818</v>
+      </c>
+      <c r="N288" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -16253,6 +17131,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M289" t="n">
+        <v>0.001036499999998012</v>
+      </c>
+      <c r="N289" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -16308,6 +17189,9 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="M290" t="n">
+        <v>-0.01396545000000256</v>
+      </c>
+      <c r="N290" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -16363,6 +17247,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M291" t="n">
+        <v>-0.04895699999999915</v>
+      </c>
+      <c r="N291" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -16418,6 +17305,9 @@
         <v>-0.125</v>
       </c>
       <c r="M292" t="n">
+        <v>-0.13395115</v>
+      </c>
+      <c r="N292" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -16473,6 +17363,9 @@
         <v>-0.3099999999999952</v>
       </c>
       <c r="M293" t="n">
+        <v>-0.3188815999999953</v>
+      </c>
+      <c r="N293" t="n">
         <v>-0.8999999999999999</v>
       </c>
     </row>
@@ -16528,6 +17421,9 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="M294" t="n">
+        <v>-0.01388745000000256</v>
+      </c>
+      <c r="N294" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -16583,6 +17479,9 @@
         <v>-0.25</v>
       </c>
       <c r="M295" t="n">
+        <v>-0.2589154</v>
+      </c>
+      <c r="N295" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -16638,6 +17537,9 @@
         <v>0</v>
       </c>
       <c r="M296" t="n">
+        <v>-0.0088907</v>
+      </c>
+      <c r="N296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16693,6 +17595,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M297" t="n">
+        <v>0.006111250000000572</v>
+      </c>
+      <c r="N297" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -16748,6 +17653,9 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="M298" t="n">
+        <v>-0.03389394999999858</v>
+      </c>
+      <c r="N298" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -16793,10 +17701,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -16850,6 +17767,9 @@
         <v>-0.6999999999999886</v>
       </c>
       <c r="M300" t="n">
+        <v>-0.7723657999999887</v>
+      </c>
+      <c r="N300" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -16905,6 +17825,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M301" t="n">
+        <v>0.1277797999999886</v>
+      </c>
+      <c r="N301" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -16960,6 +17883,9 @@
         <v>0.2400000000000091</v>
       </c>
       <c r="M302" t="n">
+        <v>0.1677668000000091</v>
+      </c>
+      <c r="N302" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -17015,6 +17941,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M303" t="n">
+        <v>0.1277719999999886</v>
+      </c>
+      <c r="N303" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -17070,6 +17999,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M304" t="n">
+        <v>0.07776549999997731</v>
+      </c>
+      <c r="N304" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -17125,6 +18057,9 @@
         <v>-0.2099999999999795</v>
       </c>
       <c r="M305" t="n">
+        <v>-0.2821876999999795</v>
+      </c>
+      <c r="N305" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -17180,6 +18115,9 @@
         <v>-0.07999999999998408</v>
       </c>
       <c r="M306" t="n">
+        <v>-0.1132955999999841</v>
+      </c>
+      <c r="N306" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -17235,6 +18173,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M307" t="n">
+        <v>0.1067304000000006</v>
+      </c>
+      <c r="N307" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -17290,6 +18231,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M308" t="n">
+        <v>-0.1032708999999932</v>
+      </c>
+      <c r="N308" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -17345,6 +18289,9 @@
         <v>-0.1100000000000136</v>
       </c>
       <c r="M309" t="n">
+        <v>-0.1432865000000136</v>
+      </c>
+      <c r="N309" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -17400,6 +18347,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M310" t="n">
+        <v>-0.07329560000002046</v>
+      </c>
+      <c r="N310" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17455,6 +18405,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M311" t="n">
+        <v>-0.1233099000000034</v>
+      </c>
+      <c r="N311" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -17510,6 +18463,9 @@
         <v>-7</v>
       </c>
       <c r="M312" t="n">
+        <v>-8.66738</v>
+      </c>
+      <c r="N312" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -17565,6 +18521,9 @@
         <v>25</v>
       </c>
       <c r="M313" t="n">
+        <v>23.33132</v>
+      </c>
+      <c r="N313" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -17620,6 +18579,9 @@
         <v>-47.5</v>
       </c>
       <c r="M314" t="n">
+        <v>-49.159255</v>
+      </c>
+      <c r="N314" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -17675,6 +18637,9 @@
         <v>9.5</v>
       </c>
       <c r="M315" t="n">
+        <v>7.826575</v>
+      </c>
+      <c r="N315" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -17730,6 +18695,9 @@
         <v>-6.5</v>
       </c>
       <c r="M316" t="n">
+        <v>-8.175504999999999</v>
+      </c>
+      <c r="N316" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -17785,6 +18753,9 @@
         <v>-16.5</v>
       </c>
       <c r="M317" t="n">
+        <v>-18.172775</v>
+      </c>
+      <c r="N317" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -17840,6 +18811,9 @@
         <v>0.6500000000000341</v>
       </c>
       <c r="M318" t="n">
+        <v>0.5205915000000341</v>
+      </c>
+      <c r="N318" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -17895,6 +18869,9 @@
         <v>-1.149999999999977</v>
       </c>
       <c r="M319" t="n">
+        <v>-1.279174499999977</v>
+      </c>
+      <c r="N319" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -17950,6 +18927,9 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="M320" t="n">
+        <v>0.6708840000000114</v>
+      </c>
+      <c r="N320" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -18005,6 +18985,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M321" t="n">
+        <v>-0.4792655000000227</v>
+      </c>
+      <c r="N321" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -18060,6 +19043,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M322" t="n">
+        <v>-0.3292589999999885</v>
+      </c>
+      <c r="N322" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -18115,6 +19101,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M323" t="n">
+        <v>-0.3292459999999886</v>
+      </c>
+      <c r="N323" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -18170,6 +19159,9 @@
         <v>0.5</v>
       </c>
       <c r="M324" t="n">
+        <v>0.370598</v>
+      </c>
+      <c r="N324" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -18225,6 +19217,9 @@
         <v>-0.3499999999999943</v>
       </c>
       <c r="M325" t="n">
+        <v>-0.4082698999999943</v>
+      </c>
+      <c r="N325" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -18280,6 +19275,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M326" t="n">
+        <v>-0.02825169999999886</v>
+      </c>
+      <c r="N326" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -18335,6 +19333,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M327" t="n">
+        <v>-0.008298499999988624</v>
+      </c>
+      <c r="N327" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18390,6 +19391,9 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="M328" t="n">
+        <v>-0.1084050999999829</v>
+      </c>
+      <c r="N328" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -18445,6 +19449,9 @@
         <v>-0.710000000000008</v>
       </c>
       <c r="M329" t="n">
+        <v>-0.768384300000008</v>
+      </c>
+      <c r="N329" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -18500,6 +19507,9 @@
         <v>-1</v>
       </c>
       <c r="M330" t="n">
+        <v>-1.261586</v>
+      </c>
+      <c r="N330" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -18555,6 +19565,9 @@
         <v>-1.800000000000068</v>
       </c>
       <c r="M331" t="n">
+        <v>-2.061482000000068</v>
+      </c>
+      <c r="N331" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -18610,6 +19623,9 @@
         <v>-2</v>
       </c>
       <c r="M332" t="n">
+        <v>-2.26182</v>
+      </c>
+      <c r="N332" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -18665,6 +19681,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M333" t="n">
+        <v>-0.6622879999999772</v>
+      </c>
+      <c r="N333" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -18720,6 +19739,9 @@
         <v>-1.399999999999977</v>
       </c>
       <c r="M334" t="n">
+        <v>-1.661897999999977</v>
+      </c>
+      <c r="N334" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -18775,6 +19797,9 @@
         <v>0</v>
       </c>
       <c r="M335" t="n">
+        <v>-0.00310076</v>
+      </c>
+      <c r="N335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18830,6 +19855,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M336" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N336" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18885,6 +19913,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M337" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N337" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18940,6 +19971,9 @@
         <v>0.002000000000000668</v>
       </c>
       <c r="M338" t="n">
+        <v>-0.001100239999999332</v>
+      </c>
+      <c r="N338" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -18995,6 +20029,9 @@
         <v>-0.001999999999998892</v>
       </c>
       <c r="M339" t="n">
+        <v>-0.005100759999998892</v>
+      </c>
+      <c r="N339" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19050,6 +20087,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M340" t="n">
+        <v>-0.05231539999999602</v>
+      </c>
+      <c r="N340" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19105,6 +20145,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M341" t="n">
+        <v>0.2276793999999909</v>
+      </c>
+      <c r="N341" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -19160,6 +20203,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M342" t="n">
+        <v>-0.3322478000000114</v>
+      </c>
+      <c r="N342" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -19215,6 +20261,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M343" t="n">
+        <v>-0.09230500000000226</v>
+      </c>
+      <c r="N343" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -19270,6 +20319,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M344" t="n">
+        <v>0.06762219999999432</v>
+      </c>
+      <c r="N344" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -19325,6 +20377,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M345" t="n">
+        <v>0.02762740000000227</v>
+      </c>
+      <c r="N345" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -19380,6 +20435,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M346" t="n">
+        <v>0.04763000000001251</v>
+      </c>
+      <c r="N346" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -19435,6 +20493,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M347" t="n">
+        <v>-0.2523309999999989</v>
+      </c>
+      <c r="N347" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -19490,6 +20551,9 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="M348" t="n">
+        <v>0.3381737999999955</v>
+      </c>
+      <c r="N348" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -19545,6 +20609,9 @@
         <v>-0.2800000000000011</v>
       </c>
       <c r="M349" t="n">
+        <v>-0.321740400000001</v>
+      </c>
+      <c r="N349" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -19600,6 +20667,9 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="M350" t="n">
+        <v>0.0781972000000045</v>
+      </c>
+      <c r="N350" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -19655,6 +20725,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M351" t="n">
+        <v>-0.08188079999999204</v>
+      </c>
+      <c r="N351" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19710,6 +20783,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M352" t="n">
+        <v>-0.2218522000000068</v>
+      </c>
+      <c r="N352" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -19765,6 +20841,9 @@
         <v>-0.2999999999999829</v>
       </c>
       <c r="M353" t="n">
+        <v>-0.3418469999999829</v>
+      </c>
+      <c r="N353" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -19812,6 +20891,9 @@
         <v>0</v>
       </c>
       <c r="M354" t="n">
+        <v>-0.0417612</v>
+      </c>
+      <c r="N354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19867,6 +20949,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M355" t="n">
+        <v>0.01724050000000114</v>
+      </c>
+      <c r="N355" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -19922,6 +21007,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M356" t="n">
+        <v>0.01224114999999858</v>
+      </c>
+      <c r="N356" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -19977,6 +21065,9 @@
         <v>-0.3000000000000043</v>
       </c>
       <c r="M357" t="n">
+        <v>-0.3127166000000043</v>
+      </c>
+      <c r="N357" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -20032,6 +21123,9 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="M358" t="n">
+        <v>0.05220734999999773</v>
+      </c>
+      <c r="N358" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -20087,6 +21181,9 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="M359" t="n">
+        <v>0.06220865000000284</v>
+      </c>
+      <c r="N359" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -20142,6 +21239,9 @@
         <v>-0.02999999999999403</v>
       </c>
       <c r="M360" t="n">
+        <v>-0.04277769999999403</v>
+      </c>
+      <c r="N360" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -20197,6 +21297,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M361" t="n">
+        <v>-0.7597880000000909</v>
+      </c>
+      <c r="N361" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -20252,6 +21355,9 @@
         <v>-2.799999999999955</v>
       </c>
       <c r="M362" t="n">
+        <v>-3.159371999999955</v>
+      </c>
+      <c r="N362" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -20307,6 +21413,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M363" t="n">
+        <v>-0.9577340000001364</v>
+      </c>
+      <c r="N363" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -20362,6 +21471,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M364" t="n">
+        <v>-0.7582800000000909</v>
+      </c>
+      <c r="N364" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -20417,6 +21529,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M365" t="n">
+        <v>-0.9585140000001364</v>
+      </c>
+      <c r="N365" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -20472,6 +21587,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M366" t="n">
+        <v>-0.9585140000001364</v>
+      </c>
+      <c r="N366" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -20527,6 +21645,9 @@
         <v>-2.599999999999909</v>
       </c>
       <c r="M367" t="n">
+        <v>-2.958201999999909</v>
+      </c>
+      <c r="N367" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -20582,6 +21703,9 @@
         <v>2.799999999999955</v>
       </c>
       <c r="M368" t="n">
+        <v>2.441823999999955</v>
+      </c>
+      <c r="N368" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -20637,6 +21761,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M369" t="n">
+        <v>0.04172000000009093</v>
+      </c>
+      <c r="N369" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -20692,6 +21819,9 @@
         <v>0.0800000000000054</v>
       </c>
       <c r="M370" t="n">
+        <v>0.0646184000000054</v>
+      </c>
+      <c r="N370" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -20747,6 +21877,9 @@
         <v>-0.3299999999999983</v>
       </c>
       <c r="M371" t="n">
+        <v>-0.3453386999999983</v>
+      </c>
+      <c r="N371" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -20802,6 +21935,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M372" t="n">
+        <v>-0.07548820000000227</v>
+      </c>
+      <c r="N372" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -20857,6 +21993,9 @@
         <v>0</v>
       </c>
       <c r="M373" t="n">
+        <v>-0.0155116</v>
+      </c>
+      <c r="N373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20912,6 +22051,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M374" t="n">
+        <v>-0.1054921000000034</v>
+      </c>
+      <c r="N374" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -20967,6 +22109,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M375" t="n">
+        <v>-0.04488979999999602</v>
+      </c>
+      <c r="N375" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -21022,6 +22167,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M376" t="n">
+        <v>-0.03488850000000512</v>
+      </c>
+      <c r="N376" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -21077,6 +22225,9 @@
         <v>-0.05999999999998806</v>
       </c>
       <c r="M377" t="n">
+        <v>-0.08494179999998806</v>
+      </c>
+      <c r="N377" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -21132,6 +22283,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M378" t="n">
+        <v>-0.2049834000000068</v>
+      </c>
+      <c r="N378" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -21179,6 +22333,9 @@
         <v>0</v>
       </c>
       <c r="M379" t="n">
+        <v>-0.0248924</v>
+      </c>
+      <c r="N379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21234,6 +22391,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M380" t="n">
+        <v>-0.05448719999999915</v>
+      </c>
+      <c r="N380" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -21289,6 +22449,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M381" t="n">
+        <v>0.2054685999999989</v>
+      </c>
+      <c r="N381" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -21344,6 +22507,9 @@
         <v>0.4200000000000017</v>
       </c>
       <c r="M382" t="n">
+        <v>0.4054426000000017</v>
+      </c>
+      <c r="N382" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -21399,6 +22565,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M383" t="n">
+        <v>0.09539969999999941</v>
+      </c>
+      <c r="N383" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -21454,6 +22623,9 @@
         <v>0.1699999999999946</v>
       </c>
       <c r="M384" t="n">
+        <v>0.1554126999999946</v>
+      </c>
+      <c r="N384" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -21509,6 +22681,9 @@
         <v>0</v>
       </c>
       <c r="M385" t="n">
+        <v>-0.0145652</v>
+      </c>
+      <c r="N385" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21564,6 +22739,9 @@
         <v>-0.6199999999999761</v>
       </c>
       <c r="M386" t="n">
+        <v>-0.6563141999999762</v>
+      </c>
+      <c r="N386" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -21619,6 +22797,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M387" t="n">
+        <v>-0.1961659999999966</v>
+      </c>
+      <c r="N387" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -21674,6 +22855,9 @@
         <v>-0.3600000000000136</v>
       </c>
       <c r="M388" t="n">
+        <v>-0.3970344000000136</v>
+      </c>
+      <c r="N388" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -21729,6 +22913,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M389" t="n">
+        <v>-0.2369564000000171</v>
+      </c>
+      <c r="N389" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -21784,6 +22971,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M390" t="n">
+        <v>-0.1769381999999864</v>
+      </c>
+      <c r="N390" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -21839,6 +23029,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M391" t="n">
+        <v>-0.3969147999999852</v>
+      </c>
+      <c r="N391" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -21894,6 +23087,9 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="M392" t="n">
+        <v>0.2430644000000011</v>
+      </c>
+      <c r="N392" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -21949,6 +23145,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M393" t="n">
+        <v>-0.07689399999999204</v>
+      </c>
+      <c r="N393" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -22004,6 +23203,9 @@
         <v>-0.2999999999999829</v>
       </c>
       <c r="M394" t="n">
+        <v>-0.3368341999999829</v>
+      </c>
+      <c r="N394" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -22059,6 +23261,9 @@
         <v>-0.004000000000001336</v>
       </c>
       <c r="M395" t="n">
+        <v>-0.009187000000001336</v>
+      </c>
+      <c r="N395" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -22114,6 +23319,9 @@
         <v>-0.00700000000000145</v>
       </c>
       <c r="M396" t="n">
+        <v>-0.01218505000000145</v>
+      </c>
+      <c r="N396" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -22169,6 +23377,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M397" t="n">
+        <v>-0.02018583000000057</v>
+      </c>
+      <c r="N397" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -22224,6 +23435,9 @@
         <v>-0.09099999999999753</v>
       </c>
       <c r="M398" t="n">
+        <v>-0.09615930999999753</v>
+      </c>
+      <c r="N398" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -22279,6 +23493,9 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="M399" t="n">
+        <v>-0.01921450000002269</v>
+      </c>
+      <c r="N399" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -22334,6 +23551,9 @@
         <v>0.05000000000006821</v>
       </c>
       <c r="M400" t="n">
+        <v>-0.1215154999999318</v>
+      </c>
+      <c r="N400" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -22389,6 +23609,9 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="M401" t="n">
+        <v>-0.2714830000000227</v>
+      </c>
+      <c r="N401" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -22444,6 +23667,9 @@
         <v>-0.8500000000000227</v>
       </c>
       <c r="M402" t="n">
+        <v>-1.021333500000023</v>
+      </c>
+      <c r="N402" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -22499,6 +23725,9 @@
         <v>-0.8999999999999773</v>
       </c>
       <c r="M403" t="n">
+        <v>-1.071053999999977</v>
+      </c>
+      <c r="N403" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -22554,6 +23783,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M404" t="n">
+        <v>-2.021762499999909</v>
+      </c>
+      <c r="N404" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -22609,6 +23841,9 @@
         <v>-0.5500000000000682</v>
       </c>
       <c r="M405" t="n">
+        <v>-0.7218145000000682</v>
+      </c>
+      <c r="N405" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -22664,6 +23899,9 @@
         <v>1.100000000000023</v>
       </c>
       <c r="M406" t="n">
+        <v>0.9283870000000231</v>
+      </c>
+      <c r="N406" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -22719,6 +23957,9 @@
         <v>-0.3300000000000125</v>
       </c>
       <c r="M407" t="n">
+        <v>-0.3703689000000125</v>
+      </c>
+      <c r="N407" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -22774,6 +24015,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M408" t="n">
+        <v>0.1196401999999966</v>
+      </c>
+      <c r="N408" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -22829,6 +24073,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M409" t="n">
+        <v>-0.01048069999999886</v>
+      </c>
+      <c r="N409" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -22884,6 +24131,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M410" t="n">
+        <v>0.03963240000001251</v>
+      </c>
+      <c r="N410" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -22939,6 +24189,9 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="M411" t="n">
+        <v>-0.01484690000000909</v>
+      </c>
+      <c r="N411" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -22994,6 +24247,9 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="M412" t="n">
+        <v>0.1752116000000028</v>
+      </c>
+      <c r="N412" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -23049,6 +24305,9 @@
         <v>-6.050000000000182</v>
       </c>
       <c r="M413" t="n">
+        <v>-6.803473500000182</v>
+      </c>
+      <c r="N413" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -23104,6 +24363,9 @@
         <v>-0.9499999999998181</v>
       </c>
       <c r="M414" t="n">
+        <v>-1.703343499999818</v>
+      </c>
+      <c r="N414" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -23159,6 +24421,9 @@
         <v>5.349999999999909</v>
       </c>
       <c r="M415" t="n">
+        <v>4.594615499999909</v>
+      </c>
+      <c r="N415" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -23214,6 +24479,9 @@
         <v>-7.75</v>
       </c>
       <c r="M416" t="n">
+        <v>-8.504617499999998</v>
+      </c>
+      <c r="N416" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -23269,6 +24537,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M417" t="n">
+        <v>-0.004092309999999446</v>
+      </c>
+      <c r="N417" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -23324,6 +24595,9 @@
         <v>0.003999999999999559</v>
       </c>
       <c r="M418" t="n">
+        <v>0.0009054799999995585</v>
+      </c>
+      <c r="N418" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -23369,10 +24643,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -23426,6 +24709,9 @@
         <v>-0.910000000000025</v>
       </c>
       <c r="M420" t="n">
+        <v>-0.982967700000025</v>
+      </c>
+      <c r="N420" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -23481,6 +24767,9 @@
         <v>0.25</v>
       </c>
       <c r="M421" t="n">
+        <v>0.1770609</v>
+      </c>
+      <c r="N421" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -23536,6 +24825,9 @@
         <v>0.5199999999999818</v>
       </c>
       <c r="M422" t="n">
+        <v>0.4473325999999818</v>
+      </c>
+      <c r="N422" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -23591,6 +24883,9 @@
         <v>-0.04000000000002046</v>
       </c>
       <c r="M423" t="n">
+        <v>-0.1127428000000204</v>
+      </c>
+      <c r="N423" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -23646,6 +24941,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M424" t="n">
+        <v>-0.2226738999999773</v>
+      </c>
+      <c r="N424" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -23701,6 +24999,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M425" t="n">
+        <v>-0.1924854000000045</v>
+      </c>
+      <c r="N425" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -23756,6 +25057,9 @@
         <v>-0.03000000000002956</v>
       </c>
       <c r="M426" t="n">
+        <v>-0.1021591000000295</v>
+      </c>
+      <c r="N426" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -23811,6 +25115,9 @@
         <v>0.160000000000025</v>
       </c>
       <c r="M427" t="n">
+        <v>0.08748340000002502</v>
+      </c>
+      <c r="N427" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -23866,6 +25173,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M428" t="n">
+        <v>-0.2524724000000068</v>
+      </c>
+      <c r="N428" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -23921,6 +25231,9 @@
         <v>-0.03000000000002956</v>
       </c>
       <c r="M429" t="n">
+        <v>-0.1024373000000295</v>
+      </c>
+      <c r="N429" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -23976,6 +25289,9 @@
         <v>-0.02000000000003865</v>
       </c>
       <c r="M430" t="n">
+        <v>-0.09253220000003864</v>
+      </c>
+      <c r="N430" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24031,6 +25347,9 @@
         <v>0.1599999999999682</v>
       </c>
       <c r="M431" t="n">
+        <v>0.0874443999999682</v>
+      </c>
+      <c r="N431" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -24086,6 +25405,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M432" t="n">
+        <v>0.00736899999998409</v>
+      </c>
+      <c r="N432" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -24141,6 +25463,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M433" t="n">
+        <v>-0.1427102999999932</v>
+      </c>
+      <c r="N433" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -24196,6 +25521,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M434" t="n">
+        <v>-0.2334880000000171</v>
+      </c>
+      <c r="N434" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -24251,6 +25579,9 @@
         <v>0.1700000000000159</v>
       </c>
       <c r="M435" t="n">
+        <v>0.1365159000000159</v>
+      </c>
+      <c r="N435" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -24306,6 +25637,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M436" t="n">
+        <v>-0.2335399999999886</v>
+      </c>
+      <c r="N436" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -24361,6 +25695,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M437" t="n">
+        <v>0.1464938000000068</v>
+      </c>
+      <c r="N437" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -24416,6 +25753,9 @@
         <v>0.1299999999999955</v>
       </c>
       <c r="M438" t="n">
+        <v>0.09654969999999551</v>
+      </c>
+      <c r="N438" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -24471,6 +25811,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M439" t="n">
+        <v>-0.1535113999999761</v>
+      </c>
+      <c r="N439" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -24526,6 +25869,9 @@
         <v>0.1299999999999955</v>
       </c>
       <c r="M440" t="n">
+        <v>0.09651849999999551</v>
+      </c>
+      <c r="N440" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -24581,6 +25927,9 @@
         <v>0.3100000000000023</v>
       </c>
       <c r="M441" t="n">
+        <v>0.2764197000000023</v>
+      </c>
+      <c r="N441" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -24636,6 +25985,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M442" t="n">
+        <v>-0.1135218000000125</v>
+      </c>
+      <c r="N442" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -24691,6 +26043,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M443" t="n">
+        <v>-0.1933475999999966</v>
+      </c>
+      <c r="N443" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -24746,6 +26101,9 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="M444" t="n">
+        <v>0.04665499999998409</v>
+      </c>
+      <c r="N444" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -24801,6 +26159,9 @@
         <v>-0.3100000000000023</v>
       </c>
       <c r="M445" t="n">
+        <v>-0.3433957000000023</v>
+      </c>
+      <c r="N445" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -24856,6 +26217,9 @@
         <v>0</v>
       </c>
       <c r="M446" t="n">
+        <v>-0.033423</v>
+      </c>
+      <c r="N446" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24911,6 +26275,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M447" t="n">
+        <v>0.01657570000001137</v>
+      </c>
+      <c r="N447" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -24966,6 +26333,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M448" t="n">
+        <v>0.01657570000001136</v>
+      </c>
+      <c r="N448" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25021,6 +26391,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M449" t="n">
+        <v>0.01657570000001137</v>
+      </c>
+      <c r="N449" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25076,6 +26449,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M450" t="n">
+        <v>0.01657570000001136</v>
+      </c>
+      <c r="N450" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25131,6 +26507,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M451" t="n">
+        <v>0.01657570000001137</v>
+      </c>
+      <c r="N451" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25186,6 +26565,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M452" t="n">
+        <v>0.01657570000001136</v>
+      </c>
+      <c r="N452" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25241,6 +26623,9 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="M453" t="n">
+        <v>0.03657309999999318</v>
+      </c>
+      <c r="N453" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -25296,6 +26681,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M454" t="n">
+        <v>0.006569199999992045</v>
+      </c>
+      <c r="N454" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -25343,6 +26731,9 @@
         <v>0</v>
       </c>
       <c r="M455" t="n">
+        <v>-0.0334256</v>
+      </c>
+      <c r="N455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25398,6 +26789,9 @@
         <v>9.5</v>
       </c>
       <c r="M456" t="n">
+        <v>7.817995</v>
+      </c>
+      <c r="N456" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -25453,6 +26847,9 @@
         <v>14</v>
       </c>
       <c r="M457" t="n">
+        <v>12.31962</v>
+      </c>
+      <c r="N457" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -25508,6 +26905,9 @@
         <v>-9</v>
       </c>
       <c r="M458" t="n">
+        <v>-10.67739</v>
+      </c>
+      <c r="N458" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -25563,6 +26963,9 @@
         <v>12.5</v>
       </c>
       <c r="M459" t="n">
+        <v>10.827875</v>
+      </c>
+      <c r="N459" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -25618,6 +27021,9 @@
         <v>-6.5</v>
       </c>
       <c r="M460" t="n">
+        <v>-8.174595</v>
+      </c>
+      <c r="N460" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -25673,6 +27079,9 @@
         <v>7</v>
       </c>
       <c r="M461" t="n">
+        <v>5.32157</v>
+      </c>
+      <c r="N461" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -25728,6 +27137,9 @@
         <v>7.5</v>
       </c>
       <c r="M462" t="n">
+        <v>5.821635000000001</v>
+      </c>
+      <c r="N462" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -25783,6 +27195,9 @@
         <v>-3.5</v>
       </c>
       <c r="M463" t="n">
+        <v>-5.176934999999999</v>
+      </c>
+      <c r="N463" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -25838,6 +27253,9 @@
         <v>8.5</v>
       </c>
       <c r="M464" t="n">
+        <v>6.841005</v>
+      </c>
+      <c r="N464" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -25893,6 +27311,9 @@
         <v>-16</v>
       </c>
       <c r="M465" t="n">
+        <v>-17.65893</v>
+      </c>
+      <c r="N465" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -25948,6 +27369,9 @@
         <v>-4</v>
       </c>
       <c r="M466" t="n">
+        <v>-5.67063</v>
+      </c>
+      <c r="N466" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -26003,6 +27427,9 @@
         <v>-2.5</v>
       </c>
       <c r="M467" t="n">
+        <v>-4.169655</v>
+      </c>
+      <c r="N467" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -26058,6 +27485,9 @@
         <v>-0.5</v>
       </c>
       <c r="M468" t="n">
+        <v>-2.171215</v>
+      </c>
+      <c r="N468" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -26113,6 +27543,9 @@
         <v>-2</v>
       </c>
       <c r="M469" t="n">
+        <v>-3.67167</v>
+      </c>
+      <c r="N469" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -26168,6 +27601,9 @@
         <v>-0.5</v>
       </c>
       <c r="M470" t="n">
+        <v>-2.170565</v>
+      </c>
+      <c r="N470" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -26223,6 +27659,9 @@
         <v>9.5</v>
       </c>
       <c r="M471" t="n">
+        <v>7.828135000000001</v>
+      </c>
+      <c r="N471" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -26278,6 +27717,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M472" t="n">
+        <v>-0.2800194999999773</v>
+      </c>
+      <c r="N472" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -26333,6 +27775,9 @@
         <v>0.5999999999999659</v>
       </c>
       <c r="M473" t="n">
+        <v>0.4710009999999658</v>
+      </c>
+      <c r="N473" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -26388,6 +27833,9 @@
         <v>-0.5</v>
       </c>
       <c r="M474" t="n">
+        <v>-0.6292850000000001</v>
+      </c>
+      <c r="N474" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -26443,6 +27891,9 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="M475" t="n">
+        <v>0.3205525000000455</v>
+      </c>
+      <c r="N475" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -26498,6 +27949,9 @@
         <v>-0.5500000000000114</v>
       </c>
       <c r="M476" t="n">
+        <v>-0.6793305000000114</v>
+      </c>
+      <c r="N476" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -26553,6 +28007,9 @@
         <v>0.25</v>
       </c>
       <c r="M477" t="n">
+        <v>0.1218915</v>
+      </c>
+      <c r="N477" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -26608,6 +28065,9 @@
         <v>-0.6000000000000227</v>
       </c>
       <c r="M478" t="n">
+        <v>-0.7279980000000228</v>
+      </c>
+      <c r="N478" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -26663,6 +28123,9 @@
         <v>0.6500000000000341</v>
       </c>
       <c r="M479" t="n">
+        <v>0.5219435000000341</v>
+      </c>
+      <c r="N479" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -26718,6 +28181,9 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="M480" t="n">
+        <v>0.5719369999999886</v>
+      </c>
+      <c r="N480" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -26773,6 +28239,9 @@
         <v>-1.350000000000023</v>
       </c>
       <c r="M481" t="n">
+        <v>-1.478329500000023</v>
+      </c>
+      <c r="N481" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -26828,6 +28297,9 @@
         <v>1</v>
       </c>
       <c r="M482" t="n">
+        <v>0.871443</v>
+      </c>
+      <c r="N482" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -26883,6 +28355,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M483" t="n">
+        <v>-0.4286740000000114</v>
+      </c>
+      <c r="N483" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -26938,6 +28413,9 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="M484" t="n">
+        <v>0.4214495000000114</v>
+      </c>
+      <c r="N484" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -26993,6 +28471,9 @@
         <v>0</v>
       </c>
       <c r="M485" t="n">
+        <v>-0.128635</v>
+      </c>
+      <c r="N485" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27048,6 +28529,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M486" t="n">
+        <v>-0.1786545000000114</v>
+      </c>
+      <c r="N486" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -27103,6 +28587,9 @@
         <v>0.4000000000000341</v>
       </c>
       <c r="M487" t="n">
+        <v>0.2714040000000341</v>
+      </c>
+      <c r="N487" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -27158,6 +28645,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M488" t="n">
+        <v>0.07145599999998863</v>
+      </c>
+      <c r="N488" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -27213,6 +28703,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M489" t="n">
+        <v>-0.5286219999999773</v>
+      </c>
+      <c r="N489" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -27268,6 +28761,9 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="M490" t="n">
+        <v>-0.2786674999999773</v>
+      </c>
+      <c r="N490" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -27323,6 +28819,9 @@
         <v>0</v>
       </c>
       <c r="M491" t="n">
+        <v>-0.05875999999999999</v>
+      </c>
+      <c r="N491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27378,6 +28877,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M492" t="n">
+        <v>-0.1487145000000034</v>
+      </c>
+      <c r="N492" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -27433,6 +28935,9 @@
         <v>-0.3300000000000125</v>
       </c>
       <c r="M493" t="n">
+        <v>-0.3885689000000125</v>
+      </c>
+      <c r="N493" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -27488,6 +28993,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M494" t="n">
+        <v>-0.03862220000001818</v>
+      </c>
+      <c r="N494" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -27543,6 +29051,9 @@
         <v>-0.3400000000000034</v>
       </c>
       <c r="M495" t="n">
+        <v>-0.3988198000000034</v>
+      </c>
+      <c r="N495" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -27598,6 +29109,9 @@
         <v>-0.4900000000000091</v>
       </c>
       <c r="M496" t="n">
+        <v>-0.5487951000000091</v>
+      </c>
+      <c r="N496" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -27653,6 +29167,9 @@
         <v>0</v>
       </c>
       <c r="M497" t="n">
+        <v>-0.058448</v>
+      </c>
+      <c r="N497" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27708,6 +29225,9 @@
         <v>0.6200000000000045</v>
       </c>
       <c r="M498" t="n">
+        <v>0.5616300000000045</v>
+      </c>
+      <c r="N498" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -27763,6 +29283,9 @@
         <v>0.5099999999999909</v>
       </c>
       <c r="M499" t="n">
+        <v>0.4516156999999909</v>
+      </c>
+      <c r="N499" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -27818,6 +29341,9 @@
         <v>0.4899999999999807</v>
       </c>
       <c r="M500" t="n">
+        <v>0.4316182999999807</v>
+      </c>
+      <c r="N500" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -27873,6 +29399,9 @@
         <v>-0.7600000000000193</v>
       </c>
       <c r="M501" t="n">
+        <v>-0.8185442000000194</v>
+      </c>
+      <c r="N501" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -27928,6 +29457,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M502" t="n">
+        <v>-0.1188276000000023</v>
+      </c>
+      <c r="N502" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -27983,6 +29515,9 @@
         <v>0.04000000000002046</v>
       </c>
       <c r="M503" t="n">
+        <v>-0.01884059999997954</v>
+      </c>
+      <c r="N503" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -28038,6 +29573,9 @@
         <v>0</v>
       </c>
       <c r="M504" t="n">
+        <v>-0.0588458</v>
+      </c>
+      <c r="N504" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28093,6 +29631,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M505" t="n">
+        <v>-0.02888869999999885</v>
+      </c>
+      <c r="N505" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -28148,6 +29689,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M506" t="n">
+        <v>-0.09889259999999205</v>
+      </c>
+      <c r="N506" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -28195,6 +29739,9 @@
         <v>0</v>
       </c>
       <c r="M507" t="n">
+        <v>-0.05889519999999999</v>
+      </c>
+      <c r="N507" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28250,6 +29797,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M508" t="n">
+        <v>-0.4647579999999317</v>
+      </c>
+      <c r="N508" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -28305,6 +29855,9 @@
         <v>3.799999999999955</v>
       </c>
       <c r="M509" t="n">
+        <v>3.535085999999955</v>
+      </c>
+      <c r="N509" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -28360,6 +29913,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M510" t="n">
+        <v>1.135397999999977</v>
+      </c>
+      <c r="N510" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -28415,6 +29971,9 @@
         <v>-1.800000000000068</v>
       </c>
       <c r="M511" t="n">
+        <v>-2.062418000000068</v>
+      </c>
+      <c r="N511" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -28470,6 +30029,9 @@
         <v>1</v>
       </c>
       <c r="M512" t="n">
+        <v>0.737946</v>
+      </c>
+      <c r="N512" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -28525,6 +30087,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M513" t="n">
+        <v>1.137893999999977</v>
+      </c>
+      <c r="N513" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -28580,6 +30145,9 @@
         <v>-1</v>
       </c>
       <c r="M514" t="n">
+        <v>-1.262158</v>
+      </c>
+      <c r="N514" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -28635,6 +30203,9 @@
         <v>1</v>
       </c>
       <c r="M515" t="n">
+        <v>0.7376860000000001</v>
+      </c>
+      <c r="N515" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -28690,6 +30261,9 @@
         <v>1.199999999999932</v>
       </c>
       <c r="M516" t="n">
+        <v>0.937711999999932</v>
+      </c>
+      <c r="N516" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -28745,6 +30319,9 @@
         <v>2.199999999999932</v>
       </c>
       <c r="M517" t="n">
+        <v>1.937581999999932</v>
+      </c>
+      <c r="N517" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -28800,6 +30377,9 @@
         <v>0.1999999999999318</v>
       </c>
       <c r="M518" t="n">
+        <v>-0.06267800000006821</v>
+      </c>
+      <c r="N518" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -28855,6 +30435,9 @@
         <v>-3</v>
       </c>
       <c r="M519" t="n">
+        <v>-3.26169</v>
+      </c>
+      <c r="N519" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -28910,6 +30493,9 @@
         <v>-0.6000000000000227</v>
       </c>
       <c r="M520" t="n">
+        <v>-0.8610140000000228</v>
+      </c>
+      <c r="N520" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -28965,6 +30551,9 @@
         <v>-0.4000000000000909</v>
       </c>
       <c r="M521" t="n">
+        <v>-0.6605200000000908</v>
+      </c>
+      <c r="N521" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -29020,6 +30609,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M522" t="n">
+        <v>-1.061559999999955</v>
+      </c>
+      <c r="N522" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -29075,6 +30667,9 @@
         <v>-0.8000000000000682</v>
       </c>
       <c r="M523" t="n">
+        <v>-1.061248000000068</v>
+      </c>
+      <c r="N523" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -29130,6 +30725,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M524" t="n">
+        <v>0.5385439999999545</v>
+      </c>
+      <c r="N524" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -29185,6 +30783,9 @@
         <v>-1</v>
       </c>
       <c r="M525" t="n">
+        <v>-1.261222</v>
+      </c>
+      <c r="N525" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -29240,6 +30841,9 @@
         <v>0</v>
       </c>
       <c r="M526" t="n">
+        <v>-0.261456</v>
+      </c>
+      <c r="N526" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29295,6 +30899,9 @@
         <v>-1.199999999999932</v>
       </c>
       <c r="M527" t="n">
+        <v>-1.461767999999932</v>
+      </c>
+      <c r="N527" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -29350,6 +30957,9 @@
         <v>0.01900000000000013</v>
       </c>
       <c r="M528" t="n">
+        <v>0.01592199000000013</v>
+      </c>
+      <c r="N528" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -29405,6 +31015,9 @@
         <v>-0.005000000000000782</v>
       </c>
       <c r="M529" t="n">
+        <v>-0.008074890000000782</v>
+      </c>
+      <c r="N529" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -29460,6 +31073,9 @@
         <v>0.02899999999999991</v>
       </c>
       <c r="M530" t="n">
+        <v>0.02592484999999991</v>
+      </c>
+      <c r="N530" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -29515,6 +31131,9 @@
         <v>0.0009999999999994458</v>
       </c>
       <c r="M531" t="n">
+        <v>-0.002081910000000554</v>
+      </c>
+      <c r="N531" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -29570,6 +31189,9 @@
         <v>-0.001999999999998892</v>
       </c>
       <c r="M532" t="n">
+        <v>-0.005095819999998892</v>
+      </c>
+      <c r="N532" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -29625,6 +31247,9 @@
         <v>-0.001000000000001222</v>
       </c>
       <c r="M533" t="n">
+        <v>-0.004095430000001222</v>
+      </c>
+      <c r="N533" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -29680,6 +31305,9 @@
         <v>0</v>
       </c>
       <c r="M534" t="n">
+        <v>-0.00309582</v>
+      </c>
+      <c r="N534" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29735,6 +31363,9 @@
         <v>0.006999999999999673</v>
       </c>
       <c r="M535" t="n">
+        <v>0.003905089999999674</v>
+      </c>
+      <c r="N535" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -29790,6 +31421,9 @@
         <v>0.006999999999999673</v>
       </c>
       <c r="M536" t="n">
+        <v>0.003902749999999674</v>
+      </c>
+      <c r="N536" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -29845,6 +31479,9 @@
         <v>0.005000000000000782</v>
       </c>
       <c r="M537" t="n">
+        <v>0.001899370000000782</v>
+      </c>
+      <c r="N537" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -29900,6 +31537,9 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="M538" t="n">
+        <v>0.006900020000001559</v>
+      </c>
+      <c r="N538" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -29955,6 +31595,9 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="M539" t="n">
+        <v>-0.008098029999999005</v>
+      </c>
+      <c r="N539" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -30010,6 +31653,9 @@
         <v>0.009000000000000341</v>
       </c>
       <c r="M540" t="n">
+        <v>0.005902230000000341</v>
+      </c>
+      <c r="N540" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -30065,6 +31711,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M541" t="n">
+        <v>-0.09262220000000226</v>
+      </c>
+      <c r="N541" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -30120,6 +31769,9 @@
         <v>0.2200000000000131</v>
       </c>
       <c r="M542" t="n">
+        <v>0.1876118000000131</v>
+      </c>
+      <c r="N542" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -30175,6 +31827,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M543" t="n">
+        <v>0.02749220000000227</v>
+      </c>
+      <c r="N543" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -30230,6 +31885,9 @@
         <v>-0.1000000000000085</v>
       </c>
       <c r="M544" t="n">
+        <v>-0.1324610000000085</v>
+      </c>
+      <c r="N544" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -30285,6 +31943,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M545" t="n">
+        <v>-0.1324193999999943</v>
+      </c>
+      <c r="N545" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -30340,6 +32001,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M546" t="n">
+        <v>-0.09241940000000226</v>
+      </c>
+      <c r="N546" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -30395,6 +32059,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M547" t="n">
+        <v>-0.1323465999999943</v>
+      </c>
+      <c r="N547" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -30450,6 +32117,9 @@
         <v>-0.5600000000000023</v>
       </c>
       <c r="M548" t="n">
+        <v>-0.5925052000000023</v>
+      </c>
+      <c r="N548" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -30505,6 +32175,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M549" t="n">
+        <v>-0.07260919999999203</v>
+      </c>
+      <c r="N549" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -30560,6 +32233,9 @@
         <v>-0.2399999999999949</v>
       </c>
       <c r="M550" t="n">
+        <v>-0.2725103999999949</v>
+      </c>
+      <c r="N550" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -30615,6 +32291,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M551" t="n">
+        <v>0.02741940000000227</v>
+      </c>
+      <c r="N551" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -30662,6 +32341,9 @@
         <v>0</v>
       </c>
       <c r="M552" t="n">
+        <v>-0.0325884</v>
+      </c>
+      <c r="N552" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30717,6 +32399,9 @@
         <v>0.4799999999999898</v>
       </c>
       <c r="M553" t="n">
+        <v>0.4385507999999898</v>
+      </c>
+      <c r="N553" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -30772,6 +32457,9 @@
         <v>0.5200000000000102</v>
       </c>
       <c r="M554" t="n">
+        <v>0.4785976000000102</v>
+      </c>
+      <c r="N554" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -30827,6 +32515,9 @@
         <v>-0.2400000000000091</v>
       </c>
       <c r="M555" t="n">
+        <v>-0.2815012000000091</v>
+      </c>
+      <c r="N555" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -30882,6 +32573,9 @@
         <v>0</v>
       </c>
       <c r="M556" t="n">
+        <v>-0.0415688</v>
+      </c>
+      <c r="N556" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30937,6 +32631,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M557" t="n">
+        <v>-0.4016103999999852</v>
+      </c>
+      <c r="N557" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -30992,6 +32689,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M558" t="n">
+        <v>-0.3616155999999932</v>
+      </c>
+      <c r="N558" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -31047,6 +32747,9 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="M559" t="n">
+        <v>-0.2415376000000171</v>
+      </c>
+      <c r="N559" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -31102,6 +32805,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M560" t="n">
+        <v>-0.2612645999999989</v>
+      </c>
+      <c r="N560" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -31157,6 +32863,9 @@
         <v>-0.6999999999999886</v>
       </c>
       <c r="M561" t="n">
+        <v>-0.7414517999999887</v>
+      </c>
+      <c r="N561" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -31212,6 +32921,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M562" t="n">
+        <v>-0.1813893999999864</v>
+      </c>
+      <c r="N562" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -31267,6 +32979,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M563" t="n">
+        <v>-0.4013607999999852</v>
+      </c>
+      <c r="N563" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -31322,6 +33037,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M564" t="n">
+        <v>-0.08143359999999204</v>
+      </c>
+      <c r="N564" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -31377,6 +33095,9 @@
         <v>-0.0449999999999946</v>
       </c>
       <c r="M565" t="n">
+        <v>-0.0577185499999946</v>
+      </c>
+      <c r="N565" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -31432,6 +33153,9 @@
         <v>-0.08500000000000085</v>
       </c>
       <c r="M566" t="n">
+        <v>-0.09776015000000085</v>
+      </c>
+      <c r="N566" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -31487,6 +33211,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M567" t="n">
+        <v>-0.03276599999999602</v>
+      </c>
+      <c r="N567" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -31542,6 +33269,9 @@
         <v>0.1300000000000026</v>
       </c>
       <c r="M568" t="n">
+        <v>0.1172548000000026</v>
+      </c>
+      <c r="N568" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -31597,6 +33327,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M569" t="n">
+        <v>0.05726650000000029</v>
+      </c>
+      <c r="N569" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -31652,6 +33385,9 @@
         <v>0.06500000000000483</v>
       </c>
       <c r="M570" t="n">
+        <v>0.05226715000000483</v>
+      </c>
+      <c r="N570" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -31707,6 +33443,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M571" t="n">
+        <v>-0.01776664999999545</v>
+      </c>
+      <c r="N571" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -31762,6 +33501,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M572" t="n">
+        <v>-0.01776664999999545</v>
+      </c>
+      <c r="N572" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -31817,6 +33559,9 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="M573" t="n">
+        <v>-0.01776664999999545</v>
+      </c>
+      <c r="N573" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -31872,6 +33617,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M574" t="n">
+        <v>-0.03272569999999602</v>
+      </c>
+      <c r="N574" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -31927,6 +33675,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M575" t="n">
+        <v>0.04730810000000227</v>
+      </c>
+      <c r="N575" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -31982,6 +33733,9 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="M576" t="n">
+        <v>0.06229314999999574</v>
+      </c>
+      <c r="N576" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -32037,6 +33791,9 @@
         <v>-0.08500000000000085</v>
       </c>
       <c r="M577" t="n">
+        <v>-0.09771205000000084</v>
+      </c>
+      <c r="N577" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -32092,6 +33849,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M578" t="n">
+        <v>-0.02771855000000057</v>
+      </c>
+      <c r="N578" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -32147,6 +33907,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M579" t="n">
+        <v>-0.03273219999999602</v>
+      </c>
+      <c r="N579" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -32202,6 +33965,9 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="M580" t="n">
+        <v>-0.1127504000000014</v>
+      </c>
+      <c r="N580" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -32257,6 +34023,9 @@
         <v>-4.600000000000136</v>
       </c>
       <c r="M581" t="n">
+        <v>-4.959866000000137</v>
+      </c>
+      <c r="N581" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -32312,6 +34081,9 @@
         <v>2.200000000000045</v>
       </c>
       <c r="M582" t="n">
+        <v>1.839406000000045</v>
+      </c>
+      <c r="N582" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -32367,6 +34139,9 @@
         <v>-4.599999999999909</v>
       </c>
       <c r="M583" t="n">
+        <v>-4.961321999999909</v>
+      </c>
+      <c r="N583" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -32422,6 +34197,9 @@
         <v>-1.600000000000136</v>
       </c>
       <c r="M584" t="n">
+        <v>-1.959996000000136</v>
+      </c>
+      <c r="N584" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -32477,6 +34255,9 @@
         <v>0</v>
       </c>
       <c r="M585" t="n">
+        <v>-0.3601</v>
+      </c>
+      <c r="N585" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32532,6 +34313,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M586" t="n">
+        <v>0.4401079999999545</v>
+      </c>
+      <c r="N586" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -32587,6 +34371,9 @@
         <v>1</v>
       </c>
       <c r="M587" t="n">
+        <v>0.640082</v>
+      </c>
+      <c r="N587" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -32642,6 +34429,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M588" t="n">
+        <v>0.4400559999999546</v>
+      </c>
+      <c r="N588" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -32697,6 +34487,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M589" t="n">
+        <v>0.4400559999999546</v>
+      </c>
+      <c r="N589" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -32752,6 +34545,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M590" t="n">
+        <v>0.2400299999999091</v>
+      </c>
+      <c r="N590" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -32807,6 +34603,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M591" t="n">
+        <v>0.2400299999999091</v>
+      </c>
+      <c r="N591" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -32862,6 +34661,9 @@
         <v>-3</v>
       </c>
       <c r="M592" t="n">
+        <v>-3.360438</v>
+      </c>
+      <c r="N592" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -32917,6 +34719,9 @@
         <v>-1.799999999999955</v>
       </c>
       <c r="M593" t="n">
+        <v>-2.159865999999955</v>
+      </c>
+      <c r="N593" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -32972,6 +34777,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M594" t="n">
+        <v>-0.9595540000001364</v>
+      </c>
+      <c r="N594" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -33027,6 +34835,9 @@
         <v>-4.200000000000045</v>
       </c>
       <c r="M595" t="n">
+        <v>-4.559138000000044</v>
+      </c>
+      <c r="N595" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -33082,6 +34893,9 @@
         <v>-1.799999999999955</v>
       </c>
       <c r="M596" t="n">
+        <v>-2.154197999999955</v>
+      </c>
+      <c r="N596" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33137,6 +34951,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M597" t="n">
+        <v>0.04593200000009093</v>
+      </c>
+      <c r="N597" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -33192,6 +35009,9 @@
         <v>-5.599999999999909</v>
       </c>
       <c r="M598" t="n">
+        <v>-5.954951999999909</v>
+      </c>
+      <c r="N598" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -33247,6 +35067,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M599" t="n">
+        <v>0.4443719999999546</v>
+      </c>
+      <c r="N599" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -33302,6 +35125,9 @@
         <v>0.6000000000001364</v>
       </c>
       <c r="M600" t="n">
+        <v>0.2443460000001365</v>
+      </c>
+      <c r="N600" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -33357,6 +35183,9 @@
         <v>1</v>
       </c>
       <c r="M601" t="n">
+        <v>0.6442940000000001</v>
+      </c>
+      <c r="N601" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -33412,6 +35241,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M602" t="n">
+        <v>0.4442679999999545</v>
+      </c>
+      <c r="N602" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -33467,6 +35299,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M603" t="n">
+        <v>0.04432000000009093</v>
+      </c>
+      <c r="N603" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -33522,6 +35357,9 @@
         <v>-1.799999999999955</v>
       </c>
       <c r="M604" t="n">
+        <v>-2.155965999999955</v>
+      </c>
+      <c r="N604" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33577,6 +35415,9 @@
         <v>0.1300000000000026</v>
       </c>
       <c r="M605" t="n">
+        <v>0.1144299000000026</v>
+      </c>
+      <c r="N605" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -33632,6 +35473,9 @@
         <v>-0.1300000000000026</v>
       </c>
       <c r="M606" t="n">
+        <v>-0.1455701000000026</v>
+      </c>
+      <c r="N606" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -33687,6 +35531,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M607" t="n">
+        <v>-0.1955583999999997</v>
+      </c>
+      <c r="N607" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -33742,6 +35589,9 @@
         <v>-0.1600000000000037</v>
       </c>
       <c r="M608" t="n">
+        <v>-0.1754934000000037</v>
+      </c>
+      <c r="N608" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -33797,6 +35647,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M609" t="n">
+        <v>0.0945052999999994</v>
+      </c>
+      <c r="N609" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -33852,6 +35705,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M610" t="n">
+        <v>0.03457029999999716</v>
+      </c>
+      <c r="N610" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -33907,6 +35763,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M611" t="n">
+        <v>-0.03543880000000313</v>
+      </c>
+      <c r="N611" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -33962,6 +35821,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M612" t="n">
+        <v>-0.02544269999999801</v>
+      </c>
+      <c r="N612" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -34017,6 +35879,9 @@
         <v>-0.1300000000000026</v>
       </c>
       <c r="M613" t="n">
+        <v>-0.1454635000000026</v>
+      </c>
+      <c r="N613" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -34072,6 +35937,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M614" t="n">
+        <v>0.01449750000000114</v>
+      </c>
+      <c r="N614" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -34127,6 +35995,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M615" t="n">
+        <v>-0.09551679999999829</v>
+      </c>
+      <c r="N615" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -34182,6 +36053,9 @@
         <v>0.1499999999999986</v>
       </c>
       <c r="M616" t="n">
+        <v>0.1344714999999986</v>
+      </c>
+      <c r="N616" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -34237,6 +36111,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M617" t="n">
+        <v>-0.02554930000000512</v>
+      </c>
+      <c r="N617" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -34292,6 +36169,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M618" t="n">
+        <v>-0.005551900000001988</v>
+      </c>
+      <c r="N618" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -34347,6 +36227,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M619" t="n">
+        <v>-0.1555818000000006</v>
+      </c>
+      <c r="N619" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -34402,6 +36285,9 @@
         <v>-0.2000000000000028</v>
       </c>
       <c r="M620" t="n">
+        <v>-0.2251316000000028</v>
+      </c>
+      <c r="N620" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -34457,6 +36343,9 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="M621" t="n">
+        <v>0.01485020000000626</v>
+      </c>
+      <c r="N621" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -34512,6 +36401,9 @@
         <v>-0.3100000000000023</v>
       </c>
       <c r="M622" t="n">
+        <v>-0.3352369000000023</v>
+      </c>
+      <c r="N622" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -34567,6 +36459,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M623" t="n">
+        <v>0.004776100000001142</v>
+      </c>
+      <c r="N623" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -34622,6 +36517,9 @@
         <v>-0.4200000000000017</v>
       </c>
       <c r="M624" t="n">
+        <v>-0.4451524000000017</v>
+      </c>
+      <c r="N624" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -34677,6 +36575,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M625" t="n">
+        <v>-0.2450509999999989</v>
+      </c>
+      <c r="N625" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -34732,6 +36633,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M626" t="n">
+        <v>0.0549151999999983</v>
+      </c>
+      <c r="N626" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -34787,6 +36691,9 @@
         <v>0.230000000000004</v>
       </c>
       <c r="M627" t="n">
+        <v>0.204895700000004</v>
+      </c>
+      <c r="N627" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -34842,6 +36749,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M628" t="n">
+        <v>-0.1651056000000006</v>
+      </c>
+      <c r="N628" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -34897,6 +36807,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M629" t="n">
+        <v>-0.1048586000000125</v>
+      </c>
+      <c r="N629" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -34952,6 +36865,9 @@
         <v>-0.3100000000000023</v>
       </c>
       <c r="M630" t="n">
+        <v>-0.3349353000000023</v>
+      </c>
+      <c r="N630" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -35007,6 +36923,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M631" t="n">
+        <v>0.005017900000001142</v>
+      </c>
+      <c r="N631" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -35062,6 +36981,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M632" t="n">
+        <v>0.03503740000000227</v>
+      </c>
+      <c r="N632" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -35117,6 +37039,9 @@
         <v>0.1499999999999915</v>
       </c>
       <c r="M633" t="n">
+        <v>0.1250334999999915</v>
+      </c>
+      <c r="N633" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -35172,6 +37097,9 @@
         <v>-0.2400000000000091</v>
       </c>
       <c r="M634" t="n">
+        <v>-0.2649808000000091</v>
+      </c>
+      <c r="N634" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -35227,6 +37155,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M635" t="n">
+        <v>0.02501009999999716</v>
+      </c>
+      <c r="N635" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -35282,6 +37213,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M636" t="n">
+        <v>-0.004993800000003977</v>
+      </c>
+      <c r="N636" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -35329,6 +37263,9 @@
         <v>0</v>
       </c>
       <c r="M637" t="n">
+        <v>-0.0249912</v>
+      </c>
+      <c r="N637" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35384,6 +37321,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M638" t="n">
+        <v>-0.07459640000000227</v>
+      </c>
+      <c r="N638" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -35439,6 +37379,9 @@
         <v>-0.0800000000000054</v>
       </c>
       <c r="M639" t="n">
+        <v>-0.0945730000000054</v>
+      </c>
+      <c r="N639" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -35494,6 +37437,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M640" t="n">
+        <v>0.1254140000000006</v>
+      </c>
+      <c r="N640" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -35549,6 +37495,9 @@
         <v>0</v>
       </c>
       <c r="M641" t="n">
+        <v>-0.0146042</v>
+      </c>
+      <c r="N641" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35604,6 +37553,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M642" t="n">
+        <v>-0.07456780000000227</v>
+      </c>
+      <c r="N642" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -35659,6 +37611,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M643" t="n">
+        <v>-0.04438970000000114</v>
+      </c>
+      <c r="N643" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -35714,6 +37669,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M644" t="n">
+        <v>-0.1943467999999997</v>
+      </c>
+      <c r="N644" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -35769,6 +37727,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M645" t="n">
+        <v>-0.1744221999999966</v>
+      </c>
+      <c r="N645" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -35824,6 +37785,9 @@
         <v>-0.05999999999999517</v>
       </c>
       <c r="M646" t="n">
+        <v>-0.07439619999999517</v>
+      </c>
+      <c r="N646" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -35879,6 +37843,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M647" t="n">
+        <v>-0.3376454000000114</v>
+      </c>
+      <c r="N647" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -35934,6 +37901,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M648" t="n">
+        <v>0.02260940000000227</v>
+      </c>
+      <c r="N648" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -35989,6 +37959,9 @@
         <v>-0.460000000000008</v>
       </c>
       <c r="M649" t="n">
+        <v>-0.497640200000008</v>
+      </c>
+      <c r="N649" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -36044,6 +38017,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M650" t="n">
+        <v>-0.07740359999999204</v>
+      </c>
+      <c r="N650" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -36099,6 +38075,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M651" t="n">
+        <v>-0.05736980000001023</v>
+      </c>
+      <c r="N651" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -36154,6 +38133,9 @@
         <v>0.5</v>
       </c>
       <c r="M652" t="n">
+        <v>0.4625886</v>
+      </c>
+      <c r="N652" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -36209,6 +38191,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M653" t="n">
+        <v>0.422593800000008</v>
+      </c>
+      <c r="N653" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -36264,6 +38249,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M654" t="n">
+        <v>0.3625860000000057</v>
+      </c>
+      <c r="N654" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -36319,6 +38307,9 @@
         <v>0.539999999999992</v>
       </c>
       <c r="M655" t="n">
+        <v>0.5029369999999921</v>
+      </c>
+      <c r="N655" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -36374,6 +38365,9 @@
         <v>-1.519999999999982</v>
       </c>
       <c r="M656" t="n">
+        <v>-1.557211199999982</v>
+      </c>
+      <c r="N656" t="n">
         <v>-1.07</v>
       </c>
     </row>
@@ -36429,6 +38423,9 @@
         <v>0.4199999999999875</v>
       </c>
       <c r="M657" t="n">
+        <v>0.3826457999999875</v>
+      </c>
+      <c r="N657" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -36484,6 +38481,9 @@
         <v>0.1399999999999864</v>
       </c>
       <c r="M658" t="n">
+        <v>0.1026821999999864</v>
+      </c>
+      <c r="N658" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -36539,6 +38539,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M659" t="n">
+        <v>-0.09739580000000227</v>
+      </c>
+      <c r="N659" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36594,6 +38597,9 @@
         <v>-0.05100000000000193</v>
       </c>
       <c r="M660" t="n">
+        <v>-0.05620117000000193</v>
+      </c>
+      <c r="N660" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -36649,6 +38655,9 @@
         <v>0.07700000000000173</v>
       </c>
       <c r="M661" t="n">
+        <v>0.07180767000000174</v>
+      </c>
+      <c r="N661" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -36704,6 +38713,9 @@
         <v>-0.02200000000000202</v>
       </c>
       <c r="M662" t="n">
+        <v>-0.02717686000000202</v>
+      </c>
+      <c r="N662" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -36759,6 +38771,9 @@
         <v>0.01899999999999835</v>
       </c>
       <c r="M663" t="n">
+        <v>0.01381858999999835</v>
+      </c>
+      <c r="N663" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -36814,6 +38829,9 @@
         <v>-0.02899999999999991</v>
       </c>
       <c r="M664" t="n">
+        <v>-0.03417516999999991</v>
+      </c>
+      <c r="N664" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -36869,6 +38887,9 @@
         <v>-0.008000000000002672</v>
       </c>
       <c r="M665" t="n">
+        <v>-0.01312668000000267</v>
+      </c>
+      <c r="N665" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36924,6 +38945,9 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="M666" t="n">
+        <v>0.00486526000000156</v>
+      </c>
+      <c r="N666" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -36979,6 +39003,9 @@
         <v>-0.04199999999999804</v>
       </c>
       <c r="M667" t="n">
+        <v>-0.04712615999999804</v>
+      </c>
+      <c r="N667" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -37034,6 +39061,9 @@
         <v>-0.1069999999999993</v>
       </c>
       <c r="M668" t="n">
+        <v>-0.1121520299999993</v>
+      </c>
+      <c r="N668" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -37089,6 +39119,9 @@
         <v>-0.01300000000000168</v>
       </c>
       <c r="M669" t="n">
+        <v>-0.01816009000000168</v>
+      </c>
+      <c r="N669" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37144,6 +39177,9 @@
         <v>-0.01200000000000045</v>
       </c>
       <c r="M670" t="n">
+        <v>-0.01715762000000045</v>
+      </c>
+      <c r="N670" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -37199,6 +39235,9 @@
         <v>0.0259999999999998</v>
       </c>
       <c r="M671" t="n">
+        <v>0.0208462799999998</v>
+      </c>
+      <c r="N671" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -37254,6 +39293,9 @@
         <v>0.01499999999999702</v>
       </c>
       <c r="M672" t="n">
+        <v>0.00981884999999702</v>
+      </c>
+      <c r="N672" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -37309,6 +39351,9 @@
         <v>0</v>
       </c>
       <c r="M673" t="n">
+        <v>-0.00517452</v>
+      </c>
+      <c r="N673" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37356,6 +39401,9 @@
         <v>0</v>
       </c>
       <c r="M674" t="n">
+        <v>-0.005183879999999999</v>
+      </c>
+      <c r="N674" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37411,6 +39459,9 @@
         <v>3.549999999999955</v>
       </c>
       <c r="M675" t="n">
+        <v>3.376157499999955</v>
+      </c>
+      <c r="N675" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -37466,6 +39517,9 @@
         <v>-0.5</v>
       </c>
       <c r="M676" t="n">
+        <v>-0.674382</v>
+      </c>
+      <c r="N676" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37521,6 +39575,9 @@
         <v>-1.25</v>
       </c>
       <c r="M677" t="n">
+        <v>-1.4242325</v>
+      </c>
+      <c r="N677" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -37576,6 +39633,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M678" t="n">
+        <v>1.426424000000023</v>
+      </c>
+      <c r="N678" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -37631,6 +39691,9 @@
         <v>0.9500000000000455</v>
       </c>
       <c r="M679" t="n">
+        <v>0.7760015000000454</v>
+      </c>
+      <c r="N679" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -37686,6 +39749,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M680" t="n">
+        <v>-0.3732379999999318</v>
+      </c>
+      <c r="N680" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -37741,6 +39807,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M681" t="n">
+        <v>-0.5223995000000227</v>
+      </c>
+      <c r="N681" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -37796,6 +39865,9 @@
         <v>1.650000000000091</v>
       </c>
       <c r="M682" t="n">
+        <v>1.477912500000091</v>
+      </c>
+      <c r="N682" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -37851,6 +39923,9 @@
         <v>-0.4499999999999318</v>
       </c>
       <c r="M683" t="n">
+        <v>-0.6218144999999318</v>
+      </c>
+      <c r="N683" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -37906,6 +39981,9 @@
         <v>-2.050000000000068</v>
       </c>
       <c r="M684" t="n">
+        <v>-2.222594500000068</v>
+      </c>
+      <c r="N684" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -37961,6 +40039,9 @@
         <v>-0.8000000000000682</v>
       </c>
       <c r="M685" t="n">
+        <v>-0.9739270000000683</v>
+      </c>
+      <c r="N685" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -38016,6 +40097,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M686" t="n">
+        <v>-0.3740310000000455</v>
+      </c>
+      <c r="N686" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -38071,6 +40155,9 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="M687" t="n">
+        <v>0.4259040000000227</v>
+      </c>
+      <c r="N687" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -38126,6 +40213,9 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="M688" t="n">
+        <v>0.4259040000000228</v>
+      </c>
+      <c r="N688" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -38181,6 +40271,9 @@
         <v>-0.9500000000000455</v>
       </c>
       <c r="M689" t="n">
+        <v>-1.124297500000045</v>
+      </c>
+      <c r="N689" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -38228,6 +40321,9 @@
         <v>0</v>
       </c>
       <c r="M690" t="n">
+        <v>-0.174408</v>
+      </c>
+      <c r="N690" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38283,6 +40379,9 @@
         <v>-0.1199999999999761</v>
       </c>
       <c r="M691" t="n">
+        <v>-0.1600191999999761</v>
+      </c>
+      <c r="N691" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -38338,6 +40437,9 @@
         <v>-0.6299999999999955</v>
       </c>
       <c r="M692" t="n">
+        <v>-0.6702752999999955</v>
+      </c>
+      <c r="N692" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -38393,6 +40495,9 @@
         <v>-0.7199999999999989</v>
       </c>
       <c r="M693" t="n">
+        <v>-0.7599879999999988</v>
+      </c>
+      <c r="N693" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -38448,6 +40553,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M694" t="n">
+        <v>0.1600795999999886</v>
+      </c>
+      <c r="N694" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -38503,6 +40611,9 @@
         <v>0.3300000000000125</v>
       </c>
       <c r="M695" t="n">
+        <v>0.2905073000000125</v>
+      </c>
+      <c r="N695" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -38558,6 +40669,9 @@
         <v>0.5100000000000193</v>
       </c>
       <c r="M696" t="n">
+        <v>0.4704839000000193</v>
+      </c>
+      <c r="N696" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -38613,6 +40727,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M697" t="n">
+        <v>-0.01957979999998977</v>
+      </c>
+      <c r="N697" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -38668,6 +40785,9 @@
         <v>0.1399999999999864</v>
       </c>
       <c r="M698" t="n">
+        <v>0.1005293999999864</v>
+      </c>
+      <c r="N698" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -38723,6 +40843,9 @@
         <v>-0.6200000000000045</v>
       </c>
       <c r="M699" t="n">
+        <v>-0.6584228000000045</v>
+      </c>
+      <c r="N699" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -38778,6 +40901,9 @@
         <v>1.04000000000002</v>
       </c>
       <c r="M700" t="n">
+        <v>1.00146280000002</v>
+      </c>
+      <c r="N700" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -38833,6 +40959,9 @@
         <v>0.6799999999999784</v>
       </c>
       <c r="M701" t="n">
+        <v>0.6416213999999784</v>
+      </c>
+      <c r="N701" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -38888,6 +41017,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M702" t="n">
+        <v>-0.1784852000000148</v>
+      </c>
+      <c r="N702" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -38943,6 +41075,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M703" t="n">
+        <v>0.3613146000000056</v>
+      </c>
+      <c r="N703" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -38998,6 +41133,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M704" t="n">
+        <v>-0.1087308999999932</v>
+      </c>
+      <c r="N704" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -39053,6 +41191,9 @@
         <v>0.2400000000000091</v>
       </c>
       <c r="M705" t="n">
+        <v>0.2014628000000091</v>
+      </c>
+      <c r="N705" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -39108,6 +41249,9 @@
         <v>0.7300000000000182</v>
       </c>
       <c r="M706" t="n">
+        <v>0.6913991000000183</v>
+      </c>
+      <c r="N706" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -39163,6 +41307,9 @@
         <v>-0.0003200000000000008</v>
       </c>
       <c r="M707" t="n">
+        <v>-0.0003449704000000008</v>
+      </c>
+      <c r="N707" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -39218,6 +41365,9 @@
         <v>0.0002599999999999963</v>
       </c>
       <c r="M708" t="n">
+        <v>0.0002349437999999963</v>
+      </c>
+      <c r="N708" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -39273,6 +41423,9 @@
         <v>0.0002800000000000025</v>
       </c>
       <c r="M709" t="n">
+        <v>0.0002551076000000026</v>
+      </c>
+      <c r="N709" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -39328,6 +41481,9 @@
         <v>0.000219999999999998</v>
       </c>
       <c r="M710" t="n">
+        <v>0.000195136199999998</v>
+      </c>
+      <c r="N710" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -39383,6 +41539,9 @@
         <v>0.0002599999999999963</v>
       </c>
       <c r="M711" t="n">
+        <v>0.0002351309999999963</v>
+      </c>
+      <c r="N711" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -39438,6 +41597,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M712" t="n">
+        <v>-0.0001249158000000029</v>
+      </c>
+      <c r="N712" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -39493,6 +41655,9 @@
         <v>-5.999999999999062e-05</v>
       </c>
       <c r="M713" t="n">
+        <v>-8.480139999999061e-05</v>
+      </c>
+      <c r="N713" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -39548,6 +41713,9 @@
         <v>-0.0002599999999999963</v>
       </c>
       <c r="M714" t="n">
+        <v>-0.0002846973999999963</v>
+      </c>
+      <c r="N714" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -39603,6 +41771,9 @@
         <v>-7.999999999999674e-05</v>
       </c>
       <c r="M715" t="n">
+        <v>-0.0001048195999999967</v>
+      </c>
+      <c r="N715" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -39658,6 +41829,9 @@
         <v>-2.000000000000612e-05</v>
       </c>
       <c r="M716" t="n">
+        <v>-4.484820000000612e-05</v>
+      </c>
+      <c r="N716" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -39713,6 +41887,9 @@
         <v>4</v>
       </c>
       <c r="M717" t="n">
+        <v>3.24054</v>
+      </c>
+      <c r="N717" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -39768,6 +41945,9 @@
         <v>-1.950000000000273</v>
       </c>
       <c r="M718" t="n">
+        <v>-2.711195500000273</v>
+      </c>
+      <c r="N718" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -39823,6 +42003,9 @@
         <v>5.899999999999636</v>
       </c>
       <c r="M719" t="n">
+        <v>5.143009999999636</v>
+      </c>
+      <c r="N719" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -39878,6 +42061,9 @@
         <v>0.25</v>
       </c>
       <c r="M720" t="n">
+        <v>-0.5062555</v>
+      </c>
+      <c r="N720" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -39933,6 +42119,9 @@
         <v>1.099999999999909</v>
       </c>
       <c r="M721" t="n">
+        <v>0.3426459999999092</v>
+      </c>
+      <c r="N721" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -39988,6 +42177,9 @@
         <v>-1.25</v>
       </c>
       <c r="M722" t="n">
+        <v>-2.0080365</v>
+      </c>
+      <c r="N722" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -40043,6 +42235,9 @@
         <v>-6.900000000000091</v>
       </c>
       <c r="M723" t="n">
+        <v>-7.656301000000092</v>
+      </c>
+      <c r="N723" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -40098,6 +42293,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M724" t="n">
+        <v>-1.353336999999909</v>
+      </c>
+      <c r="N724" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -40153,6 +42351,9 @@
         <v>4.949999999999818</v>
       </c>
       <c r="M725" t="n">
+        <v>4.197176499999818</v>
+      </c>
+      <c r="N725" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -40208,6 +42409,9 @@
         <v>7</v>
       </c>
       <c r="M726" t="n">
+        <v>6.248235999999999</v>
+      </c>
+      <c r="N726" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -40263,6 +42467,9 @@
         <v>-11.75</v>
       </c>
       <c r="M727" t="n">
+        <v>-12.5025765</v>
+      </c>
+      <c r="N727" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -40318,6 +42525,9 @@
         <v>-1.900000000000091</v>
       </c>
       <c r="M728" t="n">
+        <v>-2.655274000000091</v>
+      </c>
+      <c r="N728" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -40373,6 +42583,9 @@
         <v>-0.75</v>
       </c>
       <c r="M729" t="n">
+        <v>-1.5047085</v>
+      </c>
+      <c r="N729" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40428,6 +42641,9 @@
         <v>2.050000000000182</v>
       </c>
       <c r="M730" t="n">
+        <v>1.295681500000182</v>
+      </c>
+      <c r="N730" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -40483,6 +42699,9 @@
         <v>1.450000000000273</v>
       </c>
       <c r="M731" t="n">
+        <v>0.6959155000002732</v>
+      </c>
+      <c r="N731" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -40538,6 +42757,9 @@
         <v>-3.899999999999636</v>
       </c>
       <c r="M732" t="n">
+        <v>-4.654779999999636</v>
+      </c>
+      <c r="N732" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -40552,7 +42774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40568,25 +42790,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -40599,18 +42826,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>-3.783329299999961</v>
+      </c>
+      <c r="C2" t="n">
         <v>-2.089999999999961</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.04179999999999921</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-1.61</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40621,18 +42851,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-16.55470400000081</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.3999999999991863</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>47</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.008510638297855028</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.01999999999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40643,18 +42876,21 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-31.63424449999972</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.950000000000275</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>45</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.06555555555556165</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05999999999999994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40665,18 +42901,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-23.03279000000077</v>
+      </c>
+      <c r="C5" t="n">
         <v>-11.40000000000077</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>44</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.2590909090909266</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-1.14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40687,18 +42926,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.15632440000001</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>42</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.0166666666666669</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.38</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -40709,18 +42951,21 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-3.393395999999876</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.800000000000124</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.04500000000000311</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.37</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -40731,18 +42976,21 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>-2.296070600000046</v>
+      </c>
+      <c r="C8" t="n">
         <v>-0.9800000000000466</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.02450000000000117</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-0.7799999999999999</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -40753,18 +43001,21 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>10.7533</v>
+      </c>
+      <c r="C9" t="n">
         <v>77</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.974358974358974</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -40775,18 +43026,21 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>-3.085879599999904</v>
+      </c>
+      <c r="C10" t="n">
         <v>-1.479999999999904</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>38</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.03894736842105011</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-0.95</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -40797,18 +43051,21 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-3.142255199999926</v>
+      </c>
+      <c r="C11" t="n">
         <v>-1.799999999999927</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>36</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.04999999999999796</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-1.249999999999999</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40819,18 +43076,21 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>-4.565097500000203</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.349999999999797</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>34</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.03970588235293521</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -40841,18 +43101,21 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-4.85169540000006</v>
+      </c>
+      <c r="C13" t="n">
         <v>-2.84000000000006</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>34</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.08352941176470766</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-1.24</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -40863,18 +43126,21 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>-0.3148962000000043</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.1999999999999956</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>33</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.006060606060605926</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2899999999999999</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -40885,18 +43151,21 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-0.667961390000013</v>
+      </c>
+      <c r="C15" t="n">
         <v>-0.499000000000013</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>32</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.01559375000000041</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-2.47</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -40907,18 +43176,21 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>-2.415930900000232</v>
+      </c>
+      <c r="C16" t="n">
         <v>-0.3700000000002319</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>28</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-0.01321428571429399</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.12</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -40929,18 +43201,21 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-2.161569100000033</v>
+      </c>
+      <c r="C17" t="n">
         <v>-1.510000000000033</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>26</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.05807692307692436</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-1.56</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -40951,18 +43226,21 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-0.6921881999999961</v>
+      </c>
+      <c r="C18" t="n">
         <v>-0.3399999999999961</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>24</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.0141666666666665</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.6000000000000002</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40973,18 +43251,21 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0.155279314999994</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.207899999999994</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>21</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.009899999999999716</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.1299999999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -40995,18 +43276,21 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0.01206253000000529</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.07700000000000529</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>21</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.003666666666666919</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.65</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -41017,18 +43301,21 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>1.141782700000064</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.930000000000063</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.09650000000000317</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.31</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -41039,18 +43326,21 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>-1.02149428</v>
+      </c>
+      <c r="C22" t="n">
         <v>-0.872</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>18</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-0.04844444444444444</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -41061,18 +43351,21 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>-0.002018102400000002</v>
+      </c>
+      <c r="C23" t="n">
         <v>-0.001640000000000003</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.0001093333333333335</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-1.63</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -41088,11 +43381,18 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/total_res/ST13_output.xlsx
+++ b/total_res/ST13_output.xlsx
@@ -42774,7 +42774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42818,6 +42818,11 @@
           <t>average_percent</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -42843,6 +42848,9 @@
       <c r="G2" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -42868,6 +42876,9 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -42893,6 +42904,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -42918,6 +42932,9 @@
       <c r="G5" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -42943,6 +42960,9 @@
       <c r="G6" t="n">
         <v>0.03</v>
       </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -42968,6 +42988,9 @@
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -42993,6 +43016,9 @@
       <c r="G8" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -43018,6 +43044,9 @@
       <c r="G9" t="n">
         <v>0.03</v>
       </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -43043,6 +43072,9 @@
       <c r="G10" t="n">
         <v>-0.02</v>
       </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -43068,6 +43100,9 @@
       <c r="G11" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -43093,6 +43128,9 @@
       <c r="G12" t="n">
         <v>0.01</v>
       </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -43118,6 +43156,9 @@
       <c r="G13" t="n">
         <v>-0.04</v>
       </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -43143,6 +43184,9 @@
       <c r="G14" t="n">
         <v>0.01</v>
       </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -43168,6 +43212,9 @@
       <c r="G15" t="n">
         <v>-0.08</v>
       </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -43193,6 +43240,9 @@
       <c r="G16" t="n">
         <v>-0</v>
       </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -43218,6 +43268,9 @@
       <c r="G17" t="n">
         <v>-0.06</v>
       </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -43243,6 +43296,9 @@
       <c r="G18" t="n">
         <v>-0.03</v>
       </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -43268,6 +43324,9 @@
       <c r="G19" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -43293,6 +43352,9 @@
       <c r="G20" t="n">
         <v>0.03</v>
       </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -43318,6 +43380,9 @@
       <c r="G21" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -43343,6 +43408,9 @@
       <c r="G22" t="n">
         <v>-0.14</v>
       </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -43368,6 +43436,9 @@
       <c r="G23" t="n">
         <v>-0.11</v>
       </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -43392,6 +43463,9 @@
       </c>
       <c r="G24" t="n">
         <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
